--- a/doc/alice/教练财务/2018年3月训练营业绩清单 - 副本.xlsx
+++ b/doc/alice/教练财务/2018年3月训练营业绩清单 - 副本.xlsx
@@ -1,25 +1,25 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="5" rupBuild="4505"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28695" windowHeight="13200" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28695" windowHeight="13200" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="大热俱乐部" sheetId="11" r:id="rId1"/>
     <sheet name="AKcross训练营（28）" sheetId="7" r:id="rId2"/>
   </sheets>
   <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'AKcross训练营（28）'!$A$2:$G$32</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">大热俱乐部!$A$1:$M$79</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'AKcross训练营（28）'!$A$2:$G$32</definedName>
   </definedNames>
   <calcPr calcId="144525" concurrentCalc="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="142">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="238" uniqueCount="142">
   <si>
     <t>教练姓名</t>
   </si>
@@ -741,15 +741,11 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="6">
+  <numFmts count="2">
     <numFmt numFmtId="176" formatCode="0_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="177" formatCode="0.00_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="36">
+  <fonts count="19">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -829,7 +825,7 @@
       <sz val="10.5"/>
       <color rgb="FF333333"/>
       <name val="Helvetica"/>
-      <charset val="134"/>
+      <family val="2"/>
     </font>
     <font>
       <b/>
@@ -840,150 +836,13 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="9" tint="-0.25"/>
+      <color theme="9" tint="-0.249977111117893"/>
       <name val="微软雅黑"/>
       <charset val="134"/>
     </font>
     <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -998,8 +857,14 @@
       <name val="宋体"/>
       <charset val="134"/>
     </font>
+    <font>
+      <sz val="9"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="35">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1008,7 +873,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.6"/>
+        <fgColor theme="5" tint="0.59999389629810485"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1020,192 +885,12 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="29">
+  <borders count="21">
     <border>
       <left/>
       <right/>
@@ -1467,255 +1152,16 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
-  <cellStyleXfs count="49">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="5" borderId="21" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="16" borderId="25" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="26" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="26" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="24" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="17" borderId="28" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="17" borderId="21" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="18" borderId="27" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="23" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="22" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
   </cellStyleXfs>
-  <cellXfs count="86">
+  <cellXfs count="95">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1728,12 +1174,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1746,286 +1186,273 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="22" fontId="5" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="11" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="22" fontId="5" fillId="3" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="1" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="22" fontId="5" fillId="2" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="1" fillId="2" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="22" fontId="5" fillId="3" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="22" fontId="5" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="22" fontId="6" fillId="3" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="1" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="1" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="1" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="22" fontId="5" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="4" borderId="15" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="22" fontId="15" fillId="4" borderId="5" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="4" borderId="5" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="4" borderId="5" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="4" borderId="5" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="4" borderId="11" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="15" fillId="4" borderId="5" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="4" borderId="6" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="11" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="22" fontId="5" fillId="3" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="1" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="4" borderId="0" xfId="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="4" borderId="10" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="4" borderId="6" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="22" fontId="5" fillId="2" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="1" fillId="2" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="22" fontId="5" fillId="3" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="22" fontId="5" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="22" fontId="6" fillId="3" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="1" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="1" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="1" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
   </cellXfs>
-  <cellStyles count="49">
+  <cellStyles count="2">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
-    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
-    <cellStyle name="输入" xfId="3" builtinId="20"/>
-    <cellStyle name="货币" xfId="4" builtinId="4"/>
-    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
-    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
-    <cellStyle name="差" xfId="7" builtinId="27"/>
-    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
-    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
-    <cellStyle name="超链接" xfId="10" builtinId="8"/>
-    <cellStyle name="百分比" xfId="11" builtinId="5"/>
-    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
-    <cellStyle name="注释" xfId="13" builtinId="10"/>
-    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
-    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
-    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
-    <cellStyle name="标题" xfId="17" builtinId="15"/>
-    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
-    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
-    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
-    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
-    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
-    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
-    <cellStyle name="输出" xfId="24" builtinId="21"/>
-    <cellStyle name="计算" xfId="25" builtinId="22"/>
-    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
-    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
-    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
-    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
-    <cellStyle name="汇总" xfId="30" builtinId="25"/>
-    <cellStyle name="好" xfId="31" builtinId="26"/>
-    <cellStyle name="适中" xfId="32" builtinId="28"/>
-    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
-    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
-    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
-    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
-    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
-    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
-    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
-    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
-    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
-    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
-    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
-    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
-    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
-    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
-    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
-    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
+    <cellStyle name="好" xfId="1" builtinId="26"/>
   </cellStyles>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -2316,1944 +1743,1943 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:M92"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection/>
-      <selection pane="bottomLeft" activeCell="I8" sqref="I8"/>
+      <pane ySplit="1" topLeftCell="A56" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="F60" sqref="F60:G73"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <cols>
     <col min="2" max="2" width="16" customWidth="1"/>
     <col min="3" max="3" width="23" customWidth="1"/>
-    <col min="4" max="4" width="5.4" customWidth="1"/>
+    <col min="4" max="4" width="5.375" customWidth="1"/>
     <col min="5" max="5" width="61.375" customWidth="1"/>
     <col min="6" max="6" width="7.375" customWidth="1"/>
     <col min="7" max="7" width="8" customWidth="1"/>
     <col min="8" max="8" width="28.5" customWidth="1"/>
     <col min="9" max="9" width="14" customWidth="1"/>
-    <col min="10" max="10" width="15.4" customWidth="1"/>
-    <col min="11" max="11" width="11.8666666666667"/>
-    <col min="12" max="12" width="10.4"/>
-    <col min="13" max="13" width="10.4666666666667" customWidth="1"/>
-    <col min="14" max="14" width="10.6" customWidth="1"/>
+    <col min="10" max="10" width="15.375" customWidth="1"/>
+    <col min="11" max="11" width="11.875"/>
+    <col min="12" max="12" width="10.375"/>
+    <col min="13" max="13" width="10.5" customWidth="1"/>
+    <col min="14" max="14" width="10.625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" s="1" customFormat="1" ht="48" customHeight="1" spans="1:13">
-      <c r="A1" s="6" t="s">
+    <row r="1" spans="1:13" s="1" customFormat="1" ht="48" customHeight="1">
+      <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="7" t="s">
+      <c r="B1" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="7" t="s">
+      <c r="C1" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="8" t="s">
+      <c r="D1" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="8" t="s">
+      <c r="E1" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="8" t="s">
+      <c r="F1" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="8" t="s">
+      <c r="G1" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="9" t="s">
+      <c r="H1" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="74"/>
-      <c r="J1" s="75"/>
-      <c r="L1" s="36"/>
-      <c r="M1" s="76"/>
-    </row>
-    <row r="2" s="1" customFormat="1" ht="15" customHeight="1" spans="1:8">
-      <c r="A2" s="40" t="s">
+      <c r="I1" s="60"/>
+      <c r="J1" s="61"/>
+      <c r="L1" s="30"/>
+      <c r="M1" s="62"/>
+    </row>
+    <row r="2" spans="1:13" s="1" customFormat="1" ht="15" customHeight="1">
+      <c r="A2" s="72" t="s">
         <v>8</v>
       </c>
-      <c r="B2" s="41">
-        <v>43162.6666666667</v>
-      </c>
-      <c r="C2" s="42" t="s">
+      <c r="B2" s="34">
+        <v>43162.666666666701</v>
+      </c>
+      <c r="C2" s="35" t="s">
         <v>9</v>
       </c>
-      <c r="D2" s="43">
+      <c r="D2" s="36">
         <v>7</v>
       </c>
-      <c r="E2" s="44" t="s">
+      <c r="E2" s="37" t="s">
         <v>10</v>
       </c>
-      <c r="F2" s="45">
+      <c r="F2" s="38">
         <f>D2*100</f>
         <v>700</v>
       </c>
-      <c r="G2" s="46">
+      <c r="G2" s="39">
         <v>300</v>
       </c>
-      <c r="H2" s="47"/>
-    </row>
-    <row r="3" s="1" customFormat="1" ht="15" customHeight="1" spans="1:8">
-      <c r="A3" s="40"/>
-      <c r="B3" s="41">
-        <v>43169.6666666667</v>
-      </c>
-      <c r="C3" s="42" t="s">
+      <c r="H2" s="40"/>
+    </row>
+    <row r="3" spans="1:13" s="1" customFormat="1" ht="15" customHeight="1">
+      <c r="A3" s="72"/>
+      <c r="B3" s="34">
+        <v>43169.666666666701</v>
+      </c>
+      <c r="C3" s="35" t="s">
         <v>9</v>
       </c>
-      <c r="D3" s="43">
+      <c r="D3" s="36">
         <v>7</v>
       </c>
-      <c r="E3" s="48" t="s">
+      <c r="E3" s="41" t="s">
         <v>11</v>
       </c>
-      <c r="F3" s="45">
+      <c r="F3" s="38">
         <f>D3*100</f>
         <v>700</v>
       </c>
-      <c r="G3" s="46">
+      <c r="G3" s="39">
         <v>300</v>
       </c>
-      <c r="H3" s="47"/>
-    </row>
-    <row r="4" s="1" customFormat="1" ht="15" customHeight="1" spans="1:8">
-      <c r="A4" s="40"/>
-      <c r="B4" s="41">
-        <v>43176.6666666667</v>
-      </c>
-      <c r="C4" s="42" t="s">
+      <c r="H3" s="40"/>
+    </row>
+    <row r="4" spans="1:13" s="1" customFormat="1" ht="15" customHeight="1">
+      <c r="A4" s="72"/>
+      <c r="B4" s="34">
+        <v>43176.666666666701</v>
+      </c>
+      <c r="C4" s="35" t="s">
         <v>9</v>
       </c>
-      <c r="D4" s="43">
+      <c r="D4" s="36">
         <v>4</v>
       </c>
-      <c r="E4" s="48" t="s">
+      <c r="E4" s="41" t="s">
         <v>12</v>
       </c>
-      <c r="F4" s="45">
+      <c r="F4" s="38">
         <f>D4*100</f>
         <v>400</v>
       </c>
-      <c r="G4" s="46">
+      <c r="G4" s="39">
         <v>300</v>
       </c>
-      <c r="H4" s="47"/>
-    </row>
-    <row r="5" s="39" customFormat="1" ht="15" customHeight="1" spans="1:8">
-      <c r="A5" s="49"/>
-      <c r="B5" s="50">
-        <v>43183.6666666667</v>
-      </c>
-      <c r="C5" s="51" t="s">
+      <c r="H4" s="40"/>
+    </row>
+    <row r="5" spans="1:13" s="33" customFormat="1" ht="15" customHeight="1">
+      <c r="A5" s="73"/>
+      <c r="B5" s="42">
+        <v>43183.666666666701</v>
+      </c>
+      <c r="C5" s="43" t="s">
         <v>9</v>
       </c>
-      <c r="D5" s="52">
+      <c r="D5" s="44">
         <v>6</v>
       </c>
-      <c r="E5" s="53" t="s">
+      <c r="E5" s="45" t="s">
         <v>13</v>
       </c>
-      <c r="F5" s="54"/>
-      <c r="G5" s="55"/>
-      <c r="H5" s="56"/>
-    </row>
-    <row r="6" s="39" customFormat="1" ht="15" customHeight="1" spans="1:8">
-      <c r="A6" s="49"/>
-      <c r="B6" s="50">
-        <v>43190.6666666667</v>
-      </c>
-      <c r="C6" s="51" t="s">
+      <c r="F5" s="46"/>
+      <c r="G5" s="47"/>
+      <c r="H5" s="48"/>
+    </row>
+    <row r="6" spans="1:13" s="33" customFormat="1" ht="15" customHeight="1">
+      <c r="A6" s="73"/>
+      <c r="B6" s="42">
+        <v>43190.666666666701</v>
+      </c>
+      <c r="C6" s="43" t="s">
         <v>9</v>
       </c>
-      <c r="D6" s="52">
+      <c r="D6" s="44">
         <v>8</v>
       </c>
-      <c r="E6" s="53" t="s">
+      <c r="E6" s="45" t="s">
         <v>14</v>
       </c>
-      <c r="F6" s="54"/>
-      <c r="G6" s="55"/>
-      <c r="H6" s="56"/>
-    </row>
-    <row r="7" s="1" customFormat="1" ht="15" customHeight="1" spans="1:8">
-      <c r="A7" s="40" t="s">
+      <c r="F6" s="46"/>
+      <c r="G6" s="47"/>
+      <c r="H6" s="48"/>
+    </row>
+    <row r="7" spans="1:13" s="1" customFormat="1" ht="15" customHeight="1">
+      <c r="A7" s="72" t="s">
         <v>15</v>
       </c>
-      <c r="B7" s="41">
-        <v>43162.6666666667</v>
-      </c>
-      <c r="C7" s="42" t="s">
+      <c r="B7" s="34">
+        <v>43162.666666666701</v>
+      </c>
+      <c r="C7" s="35" t="s">
         <v>16</v>
       </c>
-      <c r="D7" s="43">
+      <c r="D7" s="36">
         <v>7</v>
       </c>
-      <c r="E7" s="48" t="s">
+      <c r="E7" s="41" t="s">
         <v>17</v>
       </c>
-      <c r="F7" s="45">
+      <c r="F7" s="38">
         <f>D7*100</f>
         <v>700</v>
       </c>
-      <c r="G7" s="46">
+      <c r="G7" s="39">
         <v>300</v>
       </c>
-      <c r="H7" s="47"/>
-    </row>
-    <row r="8" s="1" customFormat="1" ht="15" customHeight="1" spans="1:8">
-      <c r="A8" s="40"/>
-      <c r="B8" s="41">
-        <v>43169.6666666667</v>
-      </c>
-      <c r="C8" s="42" t="s">
+      <c r="H7" s="40"/>
+    </row>
+    <row r="8" spans="1:13" s="1" customFormat="1" ht="15" customHeight="1">
+      <c r="A8" s="72"/>
+      <c r="B8" s="34">
+        <v>43169.666666666701</v>
+      </c>
+      <c r="C8" s="35" t="s">
         <v>16</v>
       </c>
-      <c r="D8" s="43">
+      <c r="D8" s="36">
         <v>7</v>
       </c>
-      <c r="E8" s="48" t="s">
+      <c r="E8" s="41" t="s">
         <v>18</v>
       </c>
-      <c r="F8" s="45">
+      <c r="F8" s="38">
         <f>D8*100</f>
         <v>700</v>
       </c>
-      <c r="G8" s="46">
+      <c r="G8" s="39">
         <v>300</v>
       </c>
-      <c r="H8" s="47"/>
-    </row>
-    <row r="9" s="1" customFormat="1" ht="15" customHeight="1" spans="1:8">
-      <c r="A9" s="40"/>
-      <c r="B9" s="41">
-        <v>43176.6666666667</v>
-      </c>
-      <c r="C9" s="42" t="s">
+      <c r="H8" s="40"/>
+    </row>
+    <row r="9" spans="1:13" s="1" customFormat="1" ht="15" customHeight="1">
+      <c r="A9" s="72"/>
+      <c r="B9" s="34">
+        <v>43176.666666666701</v>
+      </c>
+      <c r="C9" s="35" t="s">
         <v>16</v>
       </c>
-      <c r="D9" s="43">
+      <c r="D9" s="36">
         <v>8</v>
       </c>
-      <c r="E9" s="48" t="s">
+      <c r="E9" s="41" t="s">
         <v>19</v>
       </c>
-      <c r="F9" s="45">
+      <c r="F9" s="38">
         <f>D9*100</f>
         <v>800</v>
       </c>
-      <c r="G9" s="46">
+      <c r="G9" s="39">
         <v>300</v>
       </c>
-      <c r="H9" s="47"/>
-    </row>
-    <row r="10" s="1" customFormat="1" ht="15" customHeight="1" spans="1:8">
-      <c r="A10" s="40"/>
-      <c r="B10" s="41">
-        <v>43183.6666666667</v>
-      </c>
-      <c r="C10" s="42" t="s">
+      <c r="H9" s="40"/>
+    </row>
+    <row r="10" spans="1:13" s="1" customFormat="1" ht="15" customHeight="1">
+      <c r="A10" s="72"/>
+      <c r="B10" s="34">
+        <v>43183.666666666701</v>
+      </c>
+      <c r="C10" s="35" t="s">
         <v>16</v>
       </c>
-      <c r="D10" s="43">
+      <c r="D10" s="36">
         <v>7</v>
       </c>
-      <c r="E10" s="48" t="s">
+      <c r="E10" s="41" t="s">
         <v>20</v>
       </c>
-      <c r="F10" s="45">
+      <c r="F10" s="38">
         <f>D10*100</f>
         <v>700</v>
       </c>
-      <c r="G10" s="46">
+      <c r="G10" s="39">
         <v>300</v>
       </c>
-      <c r="H10" s="47"/>
-    </row>
-    <row r="11" s="39" customFormat="1" ht="15" customHeight="1" spans="1:8">
-      <c r="A11" s="49"/>
-      <c r="B11" s="50">
-        <v>43190.6666666667</v>
-      </c>
-      <c r="C11" s="51" t="s">
+      <c r="H10" s="40"/>
+    </row>
+    <row r="11" spans="1:13" s="33" customFormat="1" ht="15" customHeight="1">
+      <c r="A11" s="73"/>
+      <c r="B11" s="42">
+        <v>43190.666666666701</v>
+      </c>
+      <c r="C11" s="43" t="s">
         <v>16</v>
       </c>
-      <c r="D11" s="52">
+      <c r="D11" s="44">
         <v>6</v>
       </c>
-      <c r="E11" s="53" t="s">
+      <c r="E11" s="45" t="s">
         <v>21</v>
       </c>
-      <c r="F11" s="54"/>
-      <c r="G11" s="55"/>
-      <c r="H11" s="56"/>
-    </row>
-    <row r="12" s="1" customFormat="1" ht="34" customHeight="1" spans="1:8">
-      <c r="A12" s="40" t="s">
+      <c r="F11" s="46"/>
+      <c r="G11" s="47"/>
+      <c r="H11" s="48"/>
+    </row>
+    <row r="12" spans="1:13" s="1" customFormat="1" ht="33.950000000000003" customHeight="1">
+      <c r="A12" s="72" t="s">
         <v>22</v>
       </c>
-      <c r="B12" s="41">
-        <v>43161.7916666667</v>
-      </c>
-      <c r="C12" s="42" t="s">
+      <c r="B12" s="34">
+        <v>43161.791666666701</v>
+      </c>
+      <c r="C12" s="35" t="s">
         <v>23</v>
       </c>
-      <c r="D12" s="43">
+      <c r="D12" s="36">
         <v>10</v>
       </c>
-      <c r="E12" s="57" t="s">
+      <c r="E12" s="49" t="s">
         <v>24</v>
       </c>
-      <c r="F12" s="45">
-        <f t="shared" ref="F12:F32" si="0">D12*100</f>
+      <c r="F12" s="38">
+        <f t="shared" ref="F12:F22" si="0">D12*100</f>
         <v>1000</v>
       </c>
-      <c r="G12" s="46">
-        <f t="shared" ref="G12:G32" si="1">100+25*D12</f>
+      <c r="G12" s="39">
+        <f t="shared" ref="G12:G22" si="1">100+25*D12</f>
         <v>350</v>
       </c>
-      <c r="H12" s="47"/>
-    </row>
-    <row r="13" s="1" customFormat="1" ht="15" customHeight="1" spans="1:8">
-      <c r="A13" s="40"/>
-      <c r="B13" s="41">
+      <c r="H12" s="40"/>
+    </row>
+    <row r="13" spans="1:13" s="1" customFormat="1" ht="15" customHeight="1">
+      <c r="A13" s="72"/>
+      <c r="B13" s="34">
         <v>43162.4375</v>
       </c>
-      <c r="C13" s="42" t="s">
+      <c r="C13" s="35" t="s">
         <v>25</v>
       </c>
-      <c r="D13" s="43">
+      <c r="D13" s="36">
         <v>6</v>
       </c>
-      <c r="E13" s="48" t="s">
+      <c r="E13" s="41" t="s">
         <v>26</v>
       </c>
-      <c r="F13" s="45">
+      <c r="F13" s="38">
         <f t="shared" si="0"/>
         <v>600</v>
       </c>
-      <c r="G13" s="46">
+      <c r="G13" s="39">
         <f t="shared" si="1"/>
         <v>250</v>
       </c>
-      <c r="H13" s="47"/>
-    </row>
-    <row r="14" s="1" customFormat="1" ht="15" customHeight="1" spans="1:8">
-      <c r="A14" s="40"/>
-      <c r="B14" s="41">
-        <v>43162.7083333333</v>
-      </c>
-      <c r="C14" s="42" t="s">
+      <c r="H13" s="40"/>
+    </row>
+    <row r="14" spans="1:13" s="1" customFormat="1" ht="15" customHeight="1">
+      <c r="A14" s="72"/>
+      <c r="B14" s="34">
+        <v>43162.708333333299</v>
+      </c>
+      <c r="C14" s="35" t="s">
         <v>27</v>
       </c>
-      <c r="D14" s="43">
+      <c r="D14" s="36">
         <v>7</v>
       </c>
-      <c r="E14" s="48" t="s">
+      <c r="E14" s="41" t="s">
         <v>28</v>
       </c>
-      <c r="F14" s="45">
+      <c r="F14" s="38">
         <f t="shared" si="0"/>
         <v>700</v>
       </c>
-      <c r="G14" s="46">
+      <c r="G14" s="39">
         <f t="shared" si="1"/>
         <v>275</v>
       </c>
-      <c r="H14" s="47"/>
-    </row>
-    <row r="15" s="1" customFormat="1" ht="34" customHeight="1" spans="1:8">
-      <c r="A15" s="40"/>
-      <c r="B15" s="41">
+      <c r="H14" s="40"/>
+    </row>
+    <row r="15" spans="1:13" s="1" customFormat="1" ht="33.950000000000003" customHeight="1">
+      <c r="A15" s="72"/>
+      <c r="B15" s="34">
         <v>43163.375</v>
       </c>
-      <c r="C15" s="42" t="s">
+      <c r="C15" s="35" t="s">
         <v>29</v>
       </c>
-      <c r="D15" s="43">
+      <c r="D15" s="36">
         <v>10</v>
       </c>
-      <c r="E15" s="57" t="s">
+      <c r="E15" s="49" t="s">
         <v>30</v>
       </c>
-      <c r="F15" s="45">
+      <c r="F15" s="38">
         <f t="shared" si="0"/>
         <v>1000</v>
       </c>
-      <c r="G15" s="46">
+      <c r="G15" s="39">
         <f t="shared" si="1"/>
         <v>350</v>
       </c>
-      <c r="H15" s="47"/>
-    </row>
-    <row r="16" s="1" customFormat="1" ht="30" customHeight="1" spans="1:8">
-      <c r="A16" s="40"/>
-      <c r="B16" s="41">
-        <v>43168.7916666667</v>
-      </c>
-      <c r="C16" s="42" t="s">
+      <c r="H15" s="40"/>
+    </row>
+    <row r="16" spans="1:13" s="1" customFormat="1" ht="30" customHeight="1">
+      <c r="A16" s="72"/>
+      <c r="B16" s="34">
+        <v>43168.791666666701</v>
+      </c>
+      <c r="C16" s="35" t="s">
         <v>23</v>
       </c>
-      <c r="D16" s="43">
+      <c r="D16" s="36">
         <v>15</v>
       </c>
-      <c r="E16" s="57" t="s">
+      <c r="E16" s="49" t="s">
         <v>31</v>
       </c>
-      <c r="F16" s="45">
+      <c r="F16" s="38">
         <f t="shared" si="0"/>
         <v>1500</v>
       </c>
-      <c r="G16" s="46">
+      <c r="G16" s="39">
         <f t="shared" si="1"/>
         <v>475</v>
       </c>
-      <c r="H16" s="47"/>
-    </row>
-    <row r="17" s="1" customFormat="1" ht="15" customHeight="1" spans="1:8">
-      <c r="A17" s="40"/>
-      <c r="B17" s="41">
+      <c r="H16" s="40"/>
+    </row>
+    <row r="17" spans="1:8" s="1" customFormat="1" ht="15" customHeight="1">
+      <c r="A17" s="72"/>
+      <c r="B17" s="34">
         <v>43169.4375</v>
       </c>
-      <c r="C17" s="42" t="s">
+      <c r="C17" s="35" t="s">
         <v>25</v>
       </c>
-      <c r="D17" s="43">
+      <c r="D17" s="36">
         <v>7</v>
       </c>
-      <c r="E17" s="48" t="s">
+      <c r="E17" s="41" t="s">
         <v>32</v>
       </c>
-      <c r="F17" s="45">
+      <c r="F17" s="38">
         <f t="shared" si="0"/>
         <v>700</v>
       </c>
-      <c r="G17" s="46">
+      <c r="G17" s="39">
         <f t="shared" si="1"/>
         <v>275</v>
       </c>
-      <c r="H17" s="47"/>
-    </row>
-    <row r="18" s="1" customFormat="1" ht="15" customHeight="1" spans="1:8">
-      <c r="A18" s="40"/>
-      <c r="B18" s="58">
-        <v>43169.7083333333</v>
-      </c>
-      <c r="C18" s="59" t="s">
+      <c r="H17" s="40"/>
+    </row>
+    <row r="18" spans="1:8" s="1" customFormat="1" ht="15" customHeight="1">
+      <c r="A18" s="72"/>
+      <c r="B18" s="50">
+        <v>43169.708333333299</v>
+      </c>
+      <c r="C18" s="51" t="s">
         <v>27</v>
       </c>
-      <c r="D18" s="59">
+      <c r="D18" s="51">
         <v>6</v>
       </c>
-      <c r="E18" s="16" t="s">
+      <c r="E18" s="13" t="s">
         <v>33</v>
       </c>
-      <c r="F18" s="45">
+      <c r="F18" s="38">
         <f t="shared" si="0"/>
         <v>600</v>
       </c>
-      <c r="G18" s="46">
+      <c r="G18" s="39">
         <f t="shared" si="1"/>
         <v>250</v>
       </c>
-      <c r="H18" s="15"/>
-    </row>
-    <row r="19" s="1" customFormat="1" ht="15" customHeight="1" spans="1:8">
-      <c r="A19" s="40"/>
-      <c r="B19" s="58">
+      <c r="H18" s="12"/>
+    </row>
+    <row r="19" spans="1:8" s="1" customFormat="1" ht="15" customHeight="1">
+      <c r="A19" s="72"/>
+      <c r="B19" s="50">
         <v>43170.375</v>
       </c>
-      <c r="C19" s="59" t="s">
+      <c r="C19" s="51" t="s">
         <v>29</v>
       </c>
-      <c r="D19" s="59">
+      <c r="D19" s="51">
         <v>8</v>
       </c>
-      <c r="E19" s="16" t="s">
+      <c r="E19" s="13" t="s">
         <v>34</v>
       </c>
-      <c r="F19" s="45">
+      <c r="F19" s="38">
         <f t="shared" si="0"/>
         <v>800</v>
       </c>
-      <c r="G19" s="46">
+      <c r="G19" s="39">
         <f t="shared" si="1"/>
         <v>300</v>
       </c>
-      <c r="H19" s="15"/>
-    </row>
-    <row r="20" s="1" customFormat="1" ht="33" customHeight="1" spans="1:8">
-      <c r="A20" s="40"/>
-      <c r="B20" s="58">
-        <v>43175.7916666667</v>
-      </c>
-      <c r="C20" s="59" t="s">
+      <c r="H19" s="12"/>
+    </row>
+    <row r="20" spans="1:8" s="1" customFormat="1" ht="33" customHeight="1">
+      <c r="A20" s="72"/>
+      <c r="B20" s="50">
+        <v>43175.791666666701</v>
+      </c>
+      <c r="C20" s="51" t="s">
         <v>23</v>
       </c>
-      <c r="D20" s="59">
+      <c r="D20" s="51">
         <v>14</v>
       </c>
-      <c r="E20" s="14" t="s">
+      <c r="E20" s="11" t="s">
         <v>35</v>
       </c>
-      <c r="F20" s="45">
+      <c r="F20" s="38">
         <f t="shared" si="0"/>
         <v>1400</v>
       </c>
-      <c r="G20" s="46">
+      <c r="G20" s="39">
         <f t="shared" si="1"/>
         <v>450</v>
       </c>
-      <c r="H20" s="15"/>
-    </row>
-    <row r="21" s="1" customFormat="1" ht="15" customHeight="1" spans="1:8">
-      <c r="A21" s="40"/>
-      <c r="B21" s="58">
+      <c r="H20" s="12"/>
+    </row>
+    <row r="21" spans="1:8" s="1" customFormat="1" ht="15" customHeight="1">
+      <c r="A21" s="72"/>
+      <c r="B21" s="50">
         <v>43176.4375</v>
       </c>
-      <c r="C21" s="59" t="s">
+      <c r="C21" s="51" t="s">
         <v>25</v>
       </c>
-      <c r="D21" s="59">
+      <c r="D21" s="51">
         <v>3</v>
       </c>
-      <c r="E21" s="16" t="s">
+      <c r="E21" s="13" t="s">
         <v>36</v>
       </c>
-      <c r="F21" s="45">
+      <c r="F21" s="38">
         <f t="shared" si="0"/>
         <v>300</v>
       </c>
-      <c r="G21" s="46">
+      <c r="G21" s="39">
         <f t="shared" si="1"/>
         <v>175</v>
       </c>
-      <c r="H21" s="15"/>
-    </row>
-    <row r="22" s="1" customFormat="1" ht="15" customHeight="1" spans="1:8">
-      <c r="A22" s="40"/>
-      <c r="B22" s="58">
-        <v>43176.7083333333</v>
-      </c>
-      <c r="C22" s="59" t="s">
+      <c r="H21" s="12"/>
+    </row>
+    <row r="22" spans="1:8" s="1" customFormat="1" ht="15" customHeight="1">
+      <c r="A22" s="72"/>
+      <c r="B22" s="50">
+        <v>43176.708333333299</v>
+      </c>
+      <c r="C22" s="51" t="s">
         <v>27</v>
       </c>
-      <c r="D22" s="59">
+      <c r="D22" s="51">
         <v>8</v>
       </c>
-      <c r="E22" s="16" t="s">
+      <c r="E22" s="13" t="s">
         <v>37</v>
       </c>
-      <c r="F22" s="45">
+      <c r="F22" s="38">
         <f t="shared" si="0"/>
         <v>800</v>
       </c>
-      <c r="G22" s="46">
+      <c r="G22" s="39">
         <f t="shared" si="1"/>
         <v>300</v>
       </c>
-      <c r="H22" s="15"/>
-    </row>
-    <row r="23" s="39" customFormat="1" ht="15" customHeight="1" spans="1:8">
-      <c r="A23" s="49"/>
-      <c r="B23" s="60">
+      <c r="H22" s="12"/>
+    </row>
+    <row r="23" spans="1:8" s="33" customFormat="1" ht="15" customHeight="1">
+      <c r="A23" s="73"/>
+      <c r="B23" s="52">
         <v>43177.375</v>
       </c>
-      <c r="C23" s="61" t="s">
+      <c r="C23" s="53" t="s">
         <v>29</v>
       </c>
-      <c r="D23" s="61">
+      <c r="D23" s="53">
         <v>7</v>
       </c>
-      <c r="E23" s="62" t="s">
+      <c r="E23" s="54" t="s">
         <v>38</v>
       </c>
-      <c r="F23" s="54"/>
-      <c r="G23" s="55"/>
-      <c r="H23" s="63"/>
-    </row>
-    <row r="24" s="39" customFormat="1" ht="32" customHeight="1" spans="1:8">
-      <c r="A24" s="49"/>
-      <c r="B24" s="60">
-        <v>43182.7916666667</v>
-      </c>
-      <c r="C24" s="61" t="s">
+      <c r="F23" s="46"/>
+      <c r="G23" s="47"/>
+      <c r="H23" s="55"/>
+    </row>
+    <row r="24" spans="1:8" s="33" customFormat="1" ht="32.1" customHeight="1">
+      <c r="A24" s="73"/>
+      <c r="B24" s="52">
+        <v>43182.791666666701</v>
+      </c>
+      <c r="C24" s="53" t="s">
         <v>23</v>
       </c>
-      <c r="D24" s="61">
+      <c r="D24" s="53">
         <v>16</v>
       </c>
-      <c r="E24" s="64" t="s">
+      <c r="E24" s="56" t="s">
         <v>39</v>
       </c>
-      <c r="F24" s="54"/>
-      <c r="G24" s="55"/>
-      <c r="H24" s="63"/>
-    </row>
-    <row r="25" s="1" customFormat="1" ht="15" customHeight="1" spans="1:8">
-      <c r="A25" s="40"/>
-      <c r="B25" s="58">
-        <v>43183.4368055556</v>
-      </c>
-      <c r="C25" s="59" t="s">
+      <c r="F24" s="46"/>
+      <c r="G24" s="47"/>
+      <c r="H24" s="55"/>
+    </row>
+    <row r="25" spans="1:8" s="1" customFormat="1" ht="15" customHeight="1">
+      <c r="A25" s="72"/>
+      <c r="B25" s="50">
+        <v>43183.436805555597</v>
+      </c>
+      <c r="C25" s="51" t="s">
         <v>25</v>
       </c>
-      <c r="D25" s="59">
+      <c r="D25" s="51">
         <v>6</v>
       </c>
-      <c r="E25" s="16" t="s">
+      <c r="E25" s="13" t="s">
         <v>40</v>
       </c>
-      <c r="F25" s="45">
+      <c r="F25" s="38">
         <f>D25*100</f>
         <v>600</v>
       </c>
-      <c r="G25" s="46">
+      <c r="G25" s="39">
         <f>100+25*D25</f>
         <v>250</v>
       </c>
-      <c r="H25" s="15"/>
-    </row>
-    <row r="26" s="1" customFormat="1" ht="30" customHeight="1" spans="1:8">
-      <c r="A26" s="40"/>
-      <c r="B26" s="58">
-        <v>43183.7083333333</v>
-      </c>
-      <c r="C26" s="59" t="s">
+      <c r="H25" s="12"/>
+    </row>
+    <row r="26" spans="1:8" s="1" customFormat="1" ht="30" customHeight="1">
+      <c r="A26" s="72"/>
+      <c r="B26" s="50">
+        <v>43183.708333333299</v>
+      </c>
+      <c r="C26" s="51" t="s">
         <v>27</v>
       </c>
-      <c r="D26" s="59">
+      <c r="D26" s="51">
         <v>10</v>
       </c>
-      <c r="E26" s="14" t="s">
+      <c r="E26" s="11" t="s">
         <v>41</v>
       </c>
-      <c r="F26" s="45">
+      <c r="F26" s="38">
         <f>D26*100</f>
         <v>1000</v>
       </c>
-      <c r="G26" s="46">
+      <c r="G26" s="39">
         <f>100+25*D26</f>
         <v>350</v>
       </c>
-      <c r="H26" s="15"/>
-    </row>
-    <row r="27" s="1" customFormat="1" ht="15" customHeight="1" spans="1:8">
-      <c r="A27" s="40"/>
-      <c r="B27" s="58">
+      <c r="H26" s="12"/>
+    </row>
+    <row r="27" spans="1:8" s="1" customFormat="1" ht="15" customHeight="1">
+      <c r="A27" s="72"/>
+      <c r="B27" s="50">
         <v>43184.375</v>
       </c>
-      <c r="C27" s="59" t="s">
+      <c r="C27" s="51" t="s">
         <v>29</v>
       </c>
-      <c r="D27" s="59">
+      <c r="D27" s="51">
         <v>6</v>
       </c>
-      <c r="E27" s="16" t="s">
+      <c r="E27" s="13" t="s">
         <v>42</v>
       </c>
-      <c r="F27" s="45">
+      <c r="F27" s="38">
         <f>D27*100</f>
         <v>600</v>
       </c>
-      <c r="G27" s="46">
+      <c r="G27" s="39">
         <f>100+25*D27</f>
         <v>250</v>
       </c>
-      <c r="H27" s="15"/>
-    </row>
-    <row r="28" s="39" customFormat="1" ht="15" customHeight="1" spans="1:8">
-      <c r="A28" s="49"/>
-      <c r="B28" s="60">
-        <v>43190.7083333333</v>
-      </c>
-      <c r="C28" s="61" t="s">
+      <c r="H27" s="12"/>
+    </row>
+    <row r="28" spans="1:8" s="33" customFormat="1" ht="15" customHeight="1">
+      <c r="A28" s="73"/>
+      <c r="B28" s="52">
+        <v>43190.708333333299</v>
+      </c>
+      <c r="C28" s="53" t="s">
         <v>27</v>
       </c>
-      <c r="D28" s="61">
+      <c r="D28" s="53">
         <v>8</v>
       </c>
-      <c r="E28" s="62" t="s">
+      <c r="E28" s="54" t="s">
         <v>43</v>
       </c>
-      <c r="F28" s="54"/>
-      <c r="G28" s="55"/>
-      <c r="H28" s="63"/>
-    </row>
-    <row r="29" s="39" customFormat="1" ht="32" customHeight="1" spans="1:8">
-      <c r="A29" s="49"/>
-      <c r="B29" s="60">
-        <v>43190.7916666667</v>
-      </c>
-      <c r="C29" s="61" t="s">
+      <c r="F28" s="46"/>
+      <c r="G28" s="47"/>
+      <c r="H28" s="55"/>
+    </row>
+    <row r="29" spans="1:8" s="33" customFormat="1" ht="32.1" customHeight="1">
+      <c r="A29" s="73"/>
+      <c r="B29" s="52">
+        <v>43190.791666666701</v>
+      </c>
+      <c r="C29" s="53" t="s">
         <v>23</v>
       </c>
-      <c r="D29" s="61">
+      <c r="D29" s="53">
         <v>15</v>
       </c>
-      <c r="E29" s="64" t="s">
+      <c r="E29" s="56" t="s">
         <v>44</v>
       </c>
-      <c r="F29" s="54"/>
-      <c r="G29" s="55"/>
-      <c r="H29" s="63"/>
-    </row>
-    <row r="30" s="1" customFormat="1" ht="15" customHeight="1" spans="1:8">
-      <c r="A30" s="65"/>
-      <c r="B30" s="58">
+      <c r="F29" s="46"/>
+      <c r="G29" s="47"/>
+      <c r="H29" s="55"/>
+    </row>
+    <row r="30" spans="1:8" s="1" customFormat="1" ht="15" customHeight="1">
+      <c r="A30" s="74"/>
+      <c r="B30" s="50">
         <v>43190.4375</v>
       </c>
-      <c r="C30" s="59" t="s">
+      <c r="C30" s="51" t="s">
         <v>25</v>
       </c>
-      <c r="D30" s="59">
+      <c r="D30" s="51">
         <v>4</v>
       </c>
-      <c r="E30" s="16" t="s">
+      <c r="E30" s="13" t="s">
         <v>45</v>
       </c>
-      <c r="F30" s="45">
+      <c r="F30" s="38">
         <f t="shared" ref="F30:F36" si="2">D30*100</f>
         <v>400</v>
       </c>
-      <c r="G30" s="46">
+      <c r="G30" s="39">
         <f t="shared" ref="G30:G36" si="3">100+25*D30</f>
         <v>200</v>
       </c>
-      <c r="H30" s="15"/>
-    </row>
-    <row r="31" s="1" customFormat="1" ht="35" customHeight="1" spans="1:8">
-      <c r="A31" s="66" t="s">
+      <c r="H30" s="12"/>
+    </row>
+    <row r="31" spans="1:8" s="1" customFormat="1" ht="35.1" customHeight="1">
+      <c r="A31" s="75" t="s">
         <v>46</v>
       </c>
-      <c r="B31" s="58">
-        <v>43162.6458333333</v>
-      </c>
-      <c r="C31" s="67" t="s">
+      <c r="B31" s="50">
+        <v>43162.645833333299</v>
+      </c>
+      <c r="C31" s="57" t="s">
         <v>47</v>
       </c>
-      <c r="D31" s="59">
+      <c r="D31" s="51">
         <v>9</v>
       </c>
-      <c r="E31" s="14" t="s">
+      <c r="E31" s="11" t="s">
         <v>48</v>
       </c>
-      <c r="F31" s="45">
+      <c r="F31" s="38">
         <f t="shared" si="2"/>
         <v>900</v>
       </c>
-      <c r="G31" s="46">
+      <c r="G31" s="39">
         <f t="shared" si="3"/>
         <v>325</v>
       </c>
-      <c r="H31" s="15"/>
-    </row>
-    <row r="32" s="1" customFormat="1" ht="15" customHeight="1" spans="1:8">
-      <c r="A32" s="66"/>
-      <c r="B32" s="58">
-        <v>43163.3333333333</v>
-      </c>
-      <c r="C32" s="59" t="s">
+      <c r="H31" s="12"/>
+    </row>
+    <row r="32" spans="1:8" s="1" customFormat="1" ht="15" customHeight="1">
+      <c r="A32" s="75"/>
+      <c r="B32" s="50">
+        <v>43163.333333333299</v>
+      </c>
+      <c r="C32" s="51" t="s">
         <v>49</v>
       </c>
-      <c r="D32" s="59">
+      <c r="D32" s="51">
         <v>5</v>
       </c>
-      <c r="E32" s="16" t="s">
+      <c r="E32" s="13" t="s">
         <v>50</v>
       </c>
-      <c r="F32" s="45">
+      <c r="F32" s="38">
         <f t="shared" si="2"/>
         <v>500</v>
       </c>
-      <c r="G32" s="46">
+      <c r="G32" s="39">
         <f t="shared" si="3"/>
         <v>225</v>
       </c>
-      <c r="H32" s="15"/>
-    </row>
-    <row r="33" s="1" customFormat="1" ht="15" customHeight="1" spans="1:8">
-      <c r="A33" s="66"/>
-      <c r="B33" s="58">
-        <v>43163.4166666667</v>
-      </c>
-      <c r="C33" s="59" t="s">
+      <c r="H32" s="12"/>
+    </row>
+    <row r="33" spans="1:8" s="1" customFormat="1" ht="15" customHeight="1">
+      <c r="A33" s="75"/>
+      <c r="B33" s="50">
+        <v>43163.416666666701</v>
+      </c>
+      <c r="C33" s="51" t="s">
         <v>51</v>
       </c>
-      <c r="D33" s="59">
+      <c r="D33" s="51">
         <v>5</v>
       </c>
-      <c r="E33" s="16" t="s">
+      <c r="E33" s="13" t="s">
         <v>52</v>
       </c>
-      <c r="F33" s="45">
+      <c r="F33" s="38">
         <f t="shared" si="2"/>
         <v>500</v>
       </c>
-      <c r="G33" s="46">
+      <c r="G33" s="39">
         <f t="shared" si="3"/>
         <v>225</v>
       </c>
-      <c r="H33" s="15"/>
-    </row>
-    <row r="34" s="1" customFormat="1" ht="31" customHeight="1" spans="1:8">
-      <c r="A34" s="66"/>
-      <c r="B34" s="58">
-        <v>43163.7083333333</v>
-      </c>
-      <c r="C34" s="59" t="s">
+      <c r="H33" s="12"/>
+    </row>
+    <row r="34" spans="1:8" s="1" customFormat="1" ht="30.95" customHeight="1">
+      <c r="A34" s="75"/>
+      <c r="B34" s="50">
+        <v>43163.708333333299</v>
+      </c>
+      <c r="C34" s="51" t="s">
         <v>53</v>
       </c>
-      <c r="D34" s="59">
+      <c r="D34" s="51">
         <v>13</v>
       </c>
-      <c r="E34" s="14" t="s">
+      <c r="E34" s="11" t="s">
         <v>54</v>
       </c>
-      <c r="F34" s="45">
+      <c r="F34" s="38">
         <f t="shared" si="2"/>
         <v>1300</v>
       </c>
-      <c r="G34" s="46">
+      <c r="G34" s="39">
         <f t="shared" si="3"/>
         <v>425</v>
       </c>
-      <c r="H34" s="15"/>
-    </row>
-    <row r="35" s="1" customFormat="1" ht="15" customHeight="1" spans="1:8">
-      <c r="A35" s="66"/>
-      <c r="B35" s="58">
-        <v>43164.7083333333</v>
-      </c>
-      <c r="C35" s="59" t="s">
+      <c r="H34" s="12"/>
+    </row>
+    <row r="35" spans="1:8" s="1" customFormat="1" ht="15" customHeight="1">
+      <c r="A35" s="75"/>
+      <c r="B35" s="50">
+        <v>43164.708333333299</v>
+      </c>
+      <c r="C35" s="51" t="s">
         <v>55</v>
       </c>
-      <c r="D35" s="59">
+      <c r="D35" s="51">
         <v>3</v>
       </c>
-      <c r="E35" s="16" t="s">
+      <c r="E35" s="13" t="s">
         <v>56</v>
       </c>
-      <c r="F35" s="45">
+      <c r="F35" s="38">
         <f t="shared" si="2"/>
         <v>300</v>
       </c>
-      <c r="G35" s="46">
+      <c r="G35" s="39">
         <f t="shared" si="3"/>
         <v>175</v>
       </c>
-      <c r="H35" s="15"/>
-    </row>
-    <row r="36" s="1" customFormat="1" ht="15" customHeight="1" spans="1:8">
-      <c r="A36" s="66"/>
-      <c r="B36" s="58">
-        <v>43165.7083333333</v>
-      </c>
-      <c r="C36" s="59" t="s">
+      <c r="H35" s="12"/>
+    </row>
+    <row r="36" spans="1:8" s="1" customFormat="1" ht="15" customHeight="1">
+      <c r="A36" s="75"/>
+      <c r="B36" s="50">
+        <v>43165.708333333299</v>
+      </c>
+      <c r="C36" s="51" t="s">
         <v>55</v>
       </c>
-      <c r="D36" s="59">
+      <c r="D36" s="51">
         <v>3</v>
       </c>
-      <c r="E36" s="16" t="s">
+      <c r="E36" s="13" t="s">
         <v>56</v>
       </c>
-      <c r="F36" s="45">
+      <c r="F36" s="38">
         <f t="shared" si="2"/>
         <v>300</v>
       </c>
-      <c r="G36" s="46">
+      <c r="G36" s="39">
         <f t="shared" si="3"/>
         <v>175</v>
       </c>
-      <c r="H36" s="15"/>
-    </row>
-    <row r="37" s="1" customFormat="1" ht="15" customHeight="1" spans="1:8">
-      <c r="A37" s="66"/>
-      <c r="B37" s="58">
-        <v>43168.7361111111</v>
-      </c>
-      <c r="C37" s="59" t="s">
+      <c r="H36" s="12"/>
+    </row>
+    <row r="37" spans="1:8" s="1" customFormat="1" ht="15" customHeight="1">
+      <c r="A37" s="75"/>
+      <c r="B37" s="50">
+        <v>43168.736111111102</v>
+      </c>
+      <c r="C37" s="51" t="s">
         <v>57</v>
       </c>
-      <c r="D37" s="59">
+      <c r="D37" s="51">
         <v>1</v>
       </c>
-      <c r="E37" s="16" t="s">
+      <c r="E37" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="F37" s="45">
+      <c r="F37" s="38">
         <f>180</f>
         <v>180</v>
       </c>
-      <c r="G37" s="68">
+      <c r="G37" s="58">
         <f>F37*0.8-75</f>
         <v>69</v>
       </c>
-      <c r="H37" s="15"/>
-    </row>
-    <row r="38" s="1" customFormat="1" ht="32" customHeight="1" spans="1:8">
-      <c r="A38" s="66"/>
-      <c r="B38" s="58">
-        <v>43169.6458333333</v>
-      </c>
-      <c r="C38" s="59" t="s">
+      <c r="H37" s="12"/>
+    </row>
+    <row r="38" spans="1:8" s="1" customFormat="1" ht="32.1" customHeight="1">
+      <c r="A38" s="75"/>
+      <c r="B38" s="50">
+        <v>43169.645833333299</v>
+      </c>
+      <c r="C38" s="51" t="s">
         <v>47</v>
       </c>
-      <c r="D38" s="59">
+      <c r="D38" s="51">
         <v>11</v>
       </c>
-      <c r="E38" s="14" t="s">
+      <c r="E38" s="11" t="s">
         <v>59</v>
       </c>
-      <c r="F38" s="45">
+      <c r="F38" s="38">
         <f>D38*100</f>
         <v>1100</v>
       </c>
-      <c r="G38" s="68">
+      <c r="G38" s="58">
         <f>100+25*D38</f>
         <v>375</v>
       </c>
-      <c r="H38" s="15"/>
-    </row>
-    <row r="39" s="1" customFormat="1" ht="15" customHeight="1" spans="1:8">
-      <c r="A39" s="66"/>
-      <c r="B39" s="58">
-        <v>43170.3333333333</v>
-      </c>
-      <c r="C39" s="59" t="s">
+      <c r="H38" s="12"/>
+    </row>
+    <row r="39" spans="1:8" s="1" customFormat="1" ht="15" customHeight="1">
+      <c r="A39" s="75"/>
+      <c r="B39" s="50">
+        <v>43170.333333333299</v>
+      </c>
+      <c r="C39" s="51" t="s">
         <v>49</v>
       </c>
-      <c r="D39" s="59">
+      <c r="D39" s="51">
         <v>5</v>
       </c>
-      <c r="E39" s="16" t="s">
+      <c r="E39" s="13" t="s">
         <v>60</v>
       </c>
-      <c r="F39" s="45">
+      <c r="F39" s="38">
         <f t="shared" ref="F39:F50" si="4">D39*100</f>
         <v>500</v>
       </c>
-      <c r="G39" s="68">
+      <c r="G39" s="58">
         <f t="shared" ref="G39:G50" si="5">100+25*D39</f>
         <v>225</v>
       </c>
-      <c r="H39" s="15"/>
-    </row>
-    <row r="40" s="1" customFormat="1" ht="15" customHeight="1" spans="1:8">
-      <c r="A40" s="66"/>
-      <c r="B40" s="58">
-        <v>43170.4166666667</v>
-      </c>
-      <c r="C40" s="59" t="s">
+      <c r="H39" s="12"/>
+    </row>
+    <row r="40" spans="1:8" s="1" customFormat="1" ht="15" customHeight="1">
+      <c r="A40" s="75"/>
+      <c r="B40" s="50">
+        <v>43170.416666666701</v>
+      </c>
+      <c r="C40" s="51" t="s">
         <v>51</v>
       </c>
-      <c r="D40" s="59">
+      <c r="D40" s="51">
         <v>4</v>
       </c>
-      <c r="E40" s="16" t="s">
+      <c r="E40" s="13" t="s">
         <v>61</v>
       </c>
-      <c r="F40" s="45">
+      <c r="F40" s="38">
         <f t="shared" si="4"/>
         <v>400</v>
       </c>
-      <c r="G40" s="68">
+      <c r="G40" s="58">
         <f t="shared" si="5"/>
         <v>200</v>
       </c>
-      <c r="H40" s="15"/>
-    </row>
-    <row r="41" s="1" customFormat="1" ht="29" customHeight="1" spans="1:8">
-      <c r="A41" s="66"/>
-      <c r="B41" s="58">
-        <v>43170.7083333333</v>
-      </c>
-      <c r="C41" s="59" t="s">
+      <c r="H40" s="12"/>
+    </row>
+    <row r="41" spans="1:8" s="1" customFormat="1" ht="29.1" customHeight="1">
+      <c r="A41" s="75"/>
+      <c r="B41" s="50">
+        <v>43170.708333333299</v>
+      </c>
+      <c r="C41" s="51" t="s">
         <v>53</v>
       </c>
-      <c r="D41" s="59">
+      <c r="D41" s="51">
         <v>11</v>
       </c>
-      <c r="E41" s="14" t="s">
+      <c r="E41" s="11" t="s">
         <v>62</v>
       </c>
-      <c r="F41" s="45">
+      <c r="F41" s="38">
         <f t="shared" si="4"/>
         <v>1100</v>
       </c>
-      <c r="G41" s="68">
+      <c r="G41" s="58">
         <f t="shared" si="5"/>
         <v>375</v>
       </c>
-      <c r="H41" s="15"/>
-    </row>
-    <row r="42" s="1" customFormat="1" ht="15" customHeight="1" spans="1:8">
-      <c r="A42" s="66"/>
-      <c r="B42" s="58">
-        <v>43171.7083333333</v>
-      </c>
-      <c r="C42" s="59" t="s">
+      <c r="H41" s="12"/>
+    </row>
+    <row r="42" spans="1:8" s="1" customFormat="1" ht="15" customHeight="1">
+      <c r="A42" s="75"/>
+      <c r="B42" s="50">
+        <v>43171.708333333299</v>
+      </c>
+      <c r="C42" s="51" t="s">
         <v>55</v>
       </c>
-      <c r="D42" s="59">
+      <c r="D42" s="51">
         <v>4</v>
       </c>
-      <c r="E42" s="16" t="s">
+      <c r="E42" s="13" t="s">
         <v>63</v>
       </c>
-      <c r="F42" s="45">
+      <c r="F42" s="38">
         <f t="shared" si="4"/>
         <v>400</v>
       </c>
-      <c r="G42" s="68">
+      <c r="G42" s="58">
         <f t="shared" si="5"/>
         <v>200</v>
       </c>
-      <c r="H42" s="15"/>
-    </row>
-    <row r="43" s="1" customFormat="1" ht="15" customHeight="1" spans="1:8">
-      <c r="A43" s="66"/>
-      <c r="B43" s="58">
-        <v>43172.7361111111</v>
-      </c>
-      <c r="C43" s="59" t="s">
+      <c r="H42" s="12"/>
+    </row>
+    <row r="43" spans="1:8" s="1" customFormat="1" ht="15" customHeight="1">
+      <c r="A43" s="75"/>
+      <c r="B43" s="50">
+        <v>43172.736111111102</v>
+      </c>
+      <c r="C43" s="51" t="s">
         <v>55</v>
       </c>
-      <c r="D43" s="59">
+      <c r="D43" s="51">
         <v>3</v>
       </c>
-      <c r="E43" s="16" t="s">
+      <c r="E43" s="13" t="s">
         <v>64</v>
       </c>
-      <c r="F43" s="45">
+      <c r="F43" s="38">
         <f t="shared" si="4"/>
         <v>300</v>
       </c>
-      <c r="G43" s="68">
+      <c r="G43" s="58">
         <f t="shared" si="5"/>
         <v>175</v>
       </c>
-      <c r="H43" s="15"/>
-    </row>
-    <row r="44" s="1" customFormat="1" ht="15" customHeight="1" spans="1:8">
-      <c r="A44" s="66"/>
-      <c r="B44" s="58">
-        <v>43176.6666666667</v>
-      </c>
-      <c r="C44" s="59" t="s">
+      <c r="H43" s="12"/>
+    </row>
+    <row r="44" spans="1:8" s="1" customFormat="1" ht="15" customHeight="1">
+      <c r="A44" s="75"/>
+      <c r="B44" s="50">
+        <v>43176.666666666701</v>
+      </c>
+      <c r="C44" s="51" t="s">
         <v>47</v>
       </c>
-      <c r="D44" s="59">
+      <c r="D44" s="51">
         <v>8</v>
       </c>
-      <c r="E44" s="16" t="s">
+      <c r="E44" s="13" t="s">
         <v>65</v>
       </c>
-      <c r="F44" s="45">
+      <c r="F44" s="38">
         <f t="shared" si="4"/>
         <v>800</v>
       </c>
-      <c r="G44" s="68">
+      <c r="G44" s="58">
         <f t="shared" si="5"/>
         <v>300</v>
       </c>
-      <c r="H44" s="15"/>
-    </row>
-    <row r="45" s="1" customFormat="1" ht="15" customHeight="1" spans="1:8">
-      <c r="A45" s="66"/>
-      <c r="B45" s="58">
-        <v>43176.7708333333</v>
-      </c>
-      <c r="C45" s="59" t="s">
+      <c r="H44" s="12"/>
+    </row>
+    <row r="45" spans="1:8" s="1" customFormat="1" ht="15" customHeight="1">
+      <c r="A45" s="75"/>
+      <c r="B45" s="50">
+        <v>43176.770833333299</v>
+      </c>
+      <c r="C45" s="51" t="s">
         <v>47</v>
       </c>
-      <c r="D45" s="59">
+      <c r="D45" s="51">
         <v>4</v>
       </c>
-      <c r="E45" s="16" t="s">
+      <c r="E45" s="13" t="s">
         <v>66</v>
       </c>
-      <c r="F45" s="45">
+      <c r="F45" s="38">
         <f t="shared" si="4"/>
         <v>400</v>
       </c>
-      <c r="G45" s="68">
+      <c r="G45" s="58">
         <f t="shared" si="5"/>
         <v>200</v>
       </c>
-      <c r="H45" s="15"/>
-    </row>
-    <row r="46" s="1" customFormat="1" ht="15" customHeight="1" spans="1:8">
-      <c r="A46" s="66"/>
-      <c r="B46" s="58">
-        <v>43177.3333333333</v>
-      </c>
-      <c r="C46" s="59" t="s">
+      <c r="H45" s="12"/>
+    </row>
+    <row r="46" spans="1:8" s="1" customFormat="1" ht="15" customHeight="1">
+      <c r="A46" s="75"/>
+      <c r="B46" s="50">
+        <v>43177.333333333299</v>
+      </c>
+      <c r="C46" s="51" t="s">
         <v>49</v>
       </c>
-      <c r="D46" s="59">
+      <c r="D46" s="51">
         <v>6</v>
       </c>
-      <c r="E46" s="16" t="s">
+      <c r="E46" s="13" t="s">
         <v>67</v>
       </c>
-      <c r="F46" s="45">
+      <c r="F46" s="38">
         <f t="shared" si="4"/>
         <v>600</v>
       </c>
-      <c r="G46" s="68">
+      <c r="G46" s="58">
         <f t="shared" si="5"/>
         <v>250</v>
       </c>
-      <c r="H46" s="15"/>
-    </row>
-    <row r="47" s="1" customFormat="1" ht="15" customHeight="1" spans="1:8">
-      <c r="A47" s="66"/>
-      <c r="B47" s="58">
-        <v>43177.4166666667</v>
-      </c>
-      <c r="C47" s="59" t="s">
+      <c r="H46" s="12"/>
+    </row>
+    <row r="47" spans="1:8" s="1" customFormat="1" ht="15" customHeight="1">
+      <c r="A47" s="75"/>
+      <c r="B47" s="50">
+        <v>43177.416666666701</v>
+      </c>
+      <c r="C47" s="51" t="s">
         <v>51</v>
       </c>
-      <c r="D47" s="59">
+      <c r="D47" s="51">
         <v>4</v>
       </c>
-      <c r="E47" s="16" t="s">
+      <c r="E47" s="13" t="s">
         <v>68</v>
       </c>
-      <c r="F47" s="45">
+      <c r="F47" s="38">
         <f t="shared" si="4"/>
         <v>400</v>
       </c>
-      <c r="G47" s="68">
+      <c r="G47" s="58">
         <f t="shared" si="5"/>
         <v>200</v>
       </c>
-      <c r="H47" s="15"/>
-    </row>
-    <row r="48" s="1" customFormat="1" ht="15" customHeight="1" spans="1:8">
-      <c r="A48" s="66"/>
-      <c r="B48" s="58">
-        <v>43177.7083333333</v>
-      </c>
-      <c r="C48" s="59" t="s">
+      <c r="H47" s="12"/>
+    </row>
+    <row r="48" spans="1:8" s="1" customFormat="1" ht="15" customHeight="1">
+      <c r="A48" s="75"/>
+      <c r="B48" s="50">
+        <v>43177.708333333299</v>
+      </c>
+      <c r="C48" s="51" t="s">
         <v>53</v>
       </c>
-      <c r="D48" s="59">
+      <c r="D48" s="51">
         <v>6</v>
       </c>
-      <c r="E48" s="16" t="s">
+      <c r="E48" s="13" t="s">
         <v>69</v>
       </c>
-      <c r="F48" s="45">
+      <c r="F48" s="38">
         <f t="shared" si="4"/>
         <v>600</v>
       </c>
-      <c r="G48" s="68">
+      <c r="G48" s="58">
         <f t="shared" si="5"/>
         <v>250</v>
       </c>
-      <c r="H48" s="15"/>
-    </row>
-    <row r="49" s="1" customFormat="1" ht="15" customHeight="1" spans="1:8">
-      <c r="A49" s="66"/>
-      <c r="B49" s="58">
-        <v>43178.7083333333</v>
-      </c>
-      <c r="C49" s="59" t="s">
+      <c r="H48" s="12"/>
+    </row>
+    <row r="49" spans="1:8" s="1" customFormat="1" ht="15" customHeight="1">
+      <c r="A49" s="75"/>
+      <c r="B49" s="50">
+        <v>43178.708333333299</v>
+      </c>
+      <c r="C49" s="51" t="s">
         <v>55</v>
       </c>
-      <c r="D49" s="59">
+      <c r="D49" s="51">
         <v>3</v>
       </c>
-      <c r="E49" s="16" t="s">
+      <c r="E49" s="13" t="s">
         <v>70</v>
       </c>
-      <c r="F49" s="45">
+      <c r="F49" s="38">
         <f t="shared" si="4"/>
         <v>300</v>
       </c>
-      <c r="G49" s="68">
+      <c r="G49" s="58">
         <f t="shared" si="5"/>
         <v>175</v>
       </c>
-      <c r="H49" s="15"/>
-    </row>
-    <row r="50" s="1" customFormat="1" ht="15" customHeight="1" spans="1:8">
-      <c r="A50" s="66"/>
-      <c r="B50" s="58">
-        <v>43179.7361111111</v>
-      </c>
-      <c r="C50" s="59" t="s">
+      <c r="H49" s="12"/>
+    </row>
+    <row r="50" spans="1:8" s="1" customFormat="1" ht="15" customHeight="1">
+      <c r="A50" s="75"/>
+      <c r="B50" s="50">
+        <v>43179.736111111102</v>
+      </c>
+      <c r="C50" s="51" t="s">
         <v>55</v>
       </c>
-      <c r="D50" s="59">
+      <c r="D50" s="51">
         <v>3</v>
       </c>
-      <c r="E50" s="16" t="s">
+      <c r="E50" s="13" t="s">
         <v>71</v>
       </c>
-      <c r="F50" s="45">
+      <c r="F50" s="38">
         <f t="shared" si="4"/>
         <v>300</v>
       </c>
-      <c r="G50" s="68">
+      <c r="G50" s="58">
         <f t="shared" si="5"/>
         <v>175</v>
       </c>
-      <c r="H50" s="15"/>
-    </row>
-    <row r="51" s="1" customFormat="1" ht="15" customHeight="1" spans="1:8">
-      <c r="A51" s="66"/>
-      <c r="B51" s="58">
-        <v>43182.7916666667</v>
-      </c>
-      <c r="C51" s="59" t="s">
+      <c r="H50" s="12"/>
+    </row>
+    <row r="51" spans="1:8" s="1" customFormat="1" ht="15" customHeight="1">
+      <c r="A51" s="75"/>
+      <c r="B51" s="50">
+        <v>43182.791666666701</v>
+      </c>
+      <c r="C51" s="51" t="s">
         <v>57</v>
       </c>
-      <c r="D51" s="59">
+      <c r="D51" s="51">
         <v>2</v>
       </c>
-      <c r="E51" s="16" t="s">
+      <c r="E51" s="13" t="s">
         <v>72</v>
       </c>
-      <c r="F51" s="45">
+      <c r="F51" s="38">
         <f>180*D51</f>
         <v>360</v>
       </c>
-      <c r="G51" s="68">
+      <c r="G51" s="58">
         <f>F51*0.7-75</f>
         <v>177</v>
       </c>
-      <c r="H51" s="15"/>
-    </row>
-    <row r="52" s="1" customFormat="1" ht="30" customHeight="1" spans="1:8">
-      <c r="A52" s="66"/>
-      <c r="B52" s="58">
-        <v>43183.6666666667</v>
-      </c>
-      <c r="C52" s="59" t="s">
+      <c r="H51" s="12"/>
+    </row>
+    <row r="52" spans="1:8" s="1" customFormat="1" ht="30" customHeight="1">
+      <c r="A52" s="75"/>
+      <c r="B52" s="50">
+        <v>43183.666666666701</v>
+      </c>
+      <c r="C52" s="51" t="s">
         <v>47</v>
       </c>
-      <c r="D52" s="59">
+      <c r="D52" s="51">
         <v>10</v>
       </c>
-      <c r="E52" s="14" t="s">
+      <c r="E52" s="11" t="s">
         <v>73</v>
       </c>
-      <c r="F52" s="45">
+      <c r="F52" s="38">
         <f>D52*100</f>
         <v>1000</v>
       </c>
-      <c r="G52" s="68">
+      <c r="G52" s="58">
         <f>100+25*D52</f>
         <v>350</v>
       </c>
-      <c r="H52" s="15"/>
-    </row>
-    <row r="53" s="1" customFormat="1" ht="15" customHeight="1" spans="1:8">
-      <c r="A53" s="66"/>
-      <c r="B53" s="58">
-        <v>43184.3333333333</v>
-      </c>
-      <c r="C53" s="59" t="s">
+      <c r="H52" s="12"/>
+    </row>
+    <row r="53" spans="1:8" s="1" customFormat="1" ht="15" customHeight="1">
+      <c r="A53" s="75"/>
+      <c r="B53" s="50">
+        <v>43184.333333333299</v>
+      </c>
+      <c r="C53" s="51" t="s">
         <v>49</v>
       </c>
-      <c r="D53" s="59">
+      <c r="D53" s="51">
         <v>6</v>
       </c>
-      <c r="E53" s="16" t="s">
+      <c r="E53" s="13" t="s">
         <v>74</v>
       </c>
-      <c r="F53" s="45">
+      <c r="F53" s="38">
         <f>D53*100</f>
         <v>600</v>
       </c>
-      <c r="G53" s="68">
+      <c r="G53" s="58">
         <f>100+25*D53</f>
         <v>250</v>
       </c>
-      <c r="H53" s="15"/>
-    </row>
-    <row r="54" s="1" customFormat="1" ht="15" customHeight="1" spans="1:8">
-      <c r="A54" s="66"/>
-      <c r="B54" s="58">
-        <v>43184.4166666667</v>
-      </c>
-      <c r="C54" s="59" t="s">
+      <c r="H53" s="12"/>
+    </row>
+    <row r="54" spans="1:8" s="1" customFormat="1" ht="15" customHeight="1">
+      <c r="A54" s="75"/>
+      <c r="B54" s="50">
+        <v>43184.416666666701</v>
+      </c>
+      <c r="C54" s="51" t="s">
         <v>51</v>
       </c>
-      <c r="D54" s="59">
+      <c r="D54" s="51">
         <v>4</v>
       </c>
-      <c r="E54" s="16" t="s">
+      <c r="E54" s="13" t="s">
         <v>75</v>
       </c>
-      <c r="F54" s="45">
+      <c r="F54" s="38">
         <f>D54*100</f>
         <v>400</v>
       </c>
-      <c r="G54" s="68">
+      <c r="G54" s="58">
         <f>100+25*D54</f>
         <v>200</v>
       </c>
-      <c r="H54" s="15"/>
-    </row>
-    <row r="55" s="1" customFormat="1" ht="33" customHeight="1" spans="1:8">
-      <c r="A55" s="66"/>
-      <c r="B55" s="58">
-        <v>43184.7083333333</v>
-      </c>
-      <c r="C55" s="59" t="s">
+      <c r="H54" s="12"/>
+    </row>
+    <row r="55" spans="1:8" s="1" customFormat="1" ht="33" customHeight="1">
+      <c r="A55" s="75"/>
+      <c r="B55" s="50">
+        <v>43184.708333333299</v>
+      </c>
+      <c r="C55" s="51" t="s">
         <v>53</v>
       </c>
-      <c r="D55" s="59">
+      <c r="D55" s="51">
         <v>11</v>
       </c>
-      <c r="E55" s="14" t="s">
+      <c r="E55" s="11" t="s">
         <v>76</v>
       </c>
-      <c r="F55" s="45">
+      <c r="F55" s="38">
         <f>D55*100</f>
         <v>1100</v>
       </c>
-      <c r="G55" s="68">
+      <c r="G55" s="58">
         <f>100+25*D55</f>
         <v>375</v>
       </c>
-      <c r="H55" s="15"/>
-    </row>
-    <row r="56" s="1" customFormat="1" ht="15" customHeight="1" spans="1:8">
-      <c r="A56" s="66"/>
-      <c r="B56" s="58">
-        <v>43185.7083333333</v>
-      </c>
-      <c r="C56" s="59" t="s">
+      <c r="H55" s="12"/>
+    </row>
+    <row r="56" spans="1:8" s="1" customFormat="1" ht="15" customHeight="1">
+      <c r="A56" s="75"/>
+      <c r="B56" s="50">
+        <v>43185.708333333299</v>
+      </c>
+      <c r="C56" s="51" t="s">
         <v>55</v>
       </c>
-      <c r="D56" s="59">
+      <c r="D56" s="51">
         <v>3</v>
       </c>
-      <c r="E56" s="16" t="s">
+      <c r="E56" s="13" t="s">
         <v>71</v>
       </c>
-      <c r="F56" s="45">
+      <c r="F56" s="38">
         <f>D56*100</f>
         <v>300</v>
       </c>
-      <c r="G56" s="68">
+      <c r="G56" s="58">
         <f>100+25*D56</f>
         <v>175</v>
       </c>
-      <c r="H56" s="15"/>
-    </row>
-    <row r="57" s="1" customFormat="1" ht="15" customHeight="1" spans="1:8">
-      <c r="A57" s="66"/>
-      <c r="B57" s="58">
-        <v>43189.7916666667</v>
-      </c>
-      <c r="C57" s="59" t="s">
+      <c r="H56" s="12"/>
+    </row>
+    <row r="57" spans="1:8" s="1" customFormat="1" ht="15" customHeight="1">
+      <c r="A57" s="75"/>
+      <c r="B57" s="50">
+        <v>43189.791666666701</v>
+      </c>
+      <c r="C57" s="51" t="s">
         <v>57</v>
       </c>
-      <c r="D57" s="59">
+      <c r="D57" s="51">
         <v>2</v>
       </c>
-      <c r="E57" s="16" t="s">
+      <c r="E57" s="13" t="s">
         <v>72</v>
       </c>
-      <c r="F57" s="45">
+      <c r="F57" s="38">
         <f>180*D57</f>
         <v>360</v>
       </c>
-      <c r="G57" s="68">
+      <c r="G57" s="58">
         <f>F57*0.7-75</f>
         <v>177</v>
       </c>
-      <c r="H57" s="15"/>
-    </row>
-    <row r="58" s="39" customFormat="1" ht="15" customHeight="1" spans="1:8">
-      <c r="A58" s="69"/>
-      <c r="B58" s="60">
-        <v>43190.6666666667</v>
-      </c>
-      <c r="C58" s="61" t="s">
+      <c r="H57" s="12"/>
+    </row>
+    <row r="58" spans="1:8" s="33" customFormat="1" ht="15" customHeight="1">
+      <c r="A58" s="76"/>
+      <c r="B58" s="52">
+        <v>43190.666666666701</v>
+      </c>
+      <c r="C58" s="53" t="s">
         <v>47</v>
       </c>
-      <c r="D58" s="61">
+      <c r="D58" s="53">
         <v>5</v>
       </c>
-      <c r="E58" s="62" t="s">
+      <c r="E58" s="54" t="s">
         <v>77</v>
       </c>
-      <c r="F58" s="54"/>
-      <c r="G58" s="70"/>
-      <c r="H58" s="63"/>
-    </row>
-    <row r="59" s="1" customFormat="1" ht="15" customHeight="1" spans="1:8">
-      <c r="A59" s="66"/>
-      <c r="B59" s="58">
-        <v>43190.7708333333</v>
-      </c>
-      <c r="C59" s="59" t="s">
+      <c r="F58" s="46"/>
+      <c r="G58" s="59"/>
+      <c r="H58" s="55"/>
+    </row>
+    <row r="59" spans="1:8" s="1" customFormat="1" ht="15" customHeight="1">
+      <c r="A59" s="75"/>
+      <c r="B59" s="50">
+        <v>43190.770833333299</v>
+      </c>
+      <c r="C59" s="51" t="s">
         <v>78</v>
       </c>
-      <c r="D59" s="59">
+      <c r="D59" s="51">
         <v>5</v>
       </c>
-      <c r="E59" s="16" t="s">
+      <c r="E59" s="13" t="s">
         <v>79</v>
       </c>
-      <c r="F59" s="45">
+      <c r="F59" s="38">
         <f>D59*100</f>
         <v>500</v>
       </c>
-      <c r="G59" s="68">
+      <c r="G59" s="58">
         <f t="shared" ref="G59:G65" si="6">100+25*D59</f>
         <v>225</v>
       </c>
-      <c r="H59" s="15"/>
-    </row>
-    <row r="60" s="1" customFormat="1" ht="15" customHeight="1" spans="1:8">
-      <c r="A60" s="71" t="s">
+      <c r="H59" s="12"/>
+    </row>
+    <row r="60" spans="1:8" s="92" customFormat="1" ht="15" customHeight="1">
+      <c r="A60" s="84" t="s">
         <v>80</v>
       </c>
-      <c r="B60" s="58">
-        <v>43161.8333333333</v>
-      </c>
-      <c r="C60" s="72" t="s">
+      <c r="B60" s="85">
+        <v>43161.833333333299</v>
+      </c>
+      <c r="C60" s="86" t="s">
         <v>81</v>
       </c>
-      <c r="D60" s="59">
+      <c r="D60" s="87">
         <v>4</v>
       </c>
-      <c r="E60" s="16" t="s">
+      <c r="E60" s="88" t="s">
         <v>82</v>
       </c>
-      <c r="F60" s="45">
+      <c r="F60" s="89">
         <f>D60*100</f>
         <v>400</v>
       </c>
-      <c r="G60" s="68">
+      <c r="G60" s="90">
         <f t="shared" si="6"/>
         <v>200</v>
       </c>
-      <c r="H60" s="73"/>
-    </row>
-    <row r="61" s="1" customFormat="1" ht="15" customHeight="1" spans="1:8">
-      <c r="A61" s="40"/>
-      <c r="B61" s="58">
+      <c r="H60" s="91"/>
+    </row>
+    <row r="61" spans="1:8" s="92" customFormat="1" ht="15" customHeight="1">
+      <c r="A61" s="93"/>
+      <c r="B61" s="85">
         <v>43162.34375</v>
       </c>
-      <c r="C61" s="72" t="s">
+      <c r="C61" s="86" t="s">
         <v>83</v>
       </c>
-      <c r="D61" s="59">
+      <c r="D61" s="87">
         <v>7</v>
       </c>
-      <c r="E61" s="16" t="s">
+      <c r="E61" s="88" t="s">
         <v>84</v>
       </c>
-      <c r="F61" s="45">
+      <c r="F61" s="89">
         <f t="shared" ref="F61:F78" si="7">D61*100</f>
         <v>700</v>
       </c>
-      <c r="G61" s="68">
+      <c r="G61" s="90">
         <f t="shared" si="6"/>
         <v>275</v>
       </c>
-      <c r="H61" s="73"/>
-    </row>
-    <row r="62" s="1" customFormat="1" ht="15" customHeight="1" spans="1:8">
-      <c r="A62" s="40"/>
-      <c r="B62" s="58">
-        <v>43163.3333333333</v>
-      </c>
-      <c r="C62" s="72" t="s">
+      <c r="H61" s="91"/>
+    </row>
+    <row r="62" spans="1:8" s="92" customFormat="1" ht="15" customHeight="1">
+      <c r="A62" s="93"/>
+      <c r="B62" s="85">
+        <v>43163.333333333299</v>
+      </c>
+      <c r="C62" s="86" t="s">
         <v>81</v>
       </c>
-      <c r="D62" s="59">
+      <c r="D62" s="87">
         <v>6</v>
       </c>
-      <c r="E62" s="16" t="s">
+      <c r="E62" s="88" t="s">
         <v>85</v>
       </c>
-      <c r="F62" s="45">
+      <c r="F62" s="89">
         <f t="shared" si="7"/>
         <v>600</v>
       </c>
-      <c r="G62" s="68">
+      <c r="G62" s="90">
         <f t="shared" si="6"/>
         <v>250</v>
       </c>
-      <c r="H62" s="73"/>
-    </row>
-    <row r="63" s="1" customFormat="1" ht="15" customHeight="1" spans="1:8">
-      <c r="A63" s="40"/>
-      <c r="B63" s="58">
-        <v>43168.8333333333</v>
-      </c>
-      <c r="C63" s="72" t="s">
+      <c r="H62" s="91"/>
+    </row>
+    <row r="63" spans="1:8" s="92" customFormat="1" ht="15" customHeight="1">
+      <c r="A63" s="93"/>
+      <c r="B63" s="85">
+        <v>43168.833333333299</v>
+      </c>
+      <c r="C63" s="86" t="s">
         <v>81</v>
       </c>
-      <c r="D63" s="59">
+      <c r="D63" s="87">
         <v>4</v>
       </c>
-      <c r="E63" s="16" t="s">
+      <c r="E63" s="88" t="s">
         <v>86</v>
       </c>
-      <c r="F63" s="45">
+      <c r="F63" s="89">
         <f t="shared" si="7"/>
         <v>400</v>
       </c>
-      <c r="G63" s="68">
+      <c r="G63" s="90">
         <f t="shared" si="6"/>
         <v>200</v>
       </c>
-      <c r="H63" s="73"/>
-    </row>
-    <row r="64" s="1" customFormat="1" ht="15" customHeight="1" spans="1:8">
-      <c r="A64" s="40"/>
-      <c r="B64" s="58">
+      <c r="H63" s="91"/>
+    </row>
+    <row r="64" spans="1:8" s="92" customFormat="1" ht="15" customHeight="1">
+      <c r="A64" s="93"/>
+      <c r="B64" s="85">
         <v>43169.34375</v>
       </c>
-      <c r="C64" s="72" t="s">
+      <c r="C64" s="86" t="s">
         <v>83</v>
       </c>
-      <c r="D64" s="59">
+      <c r="D64" s="87">
         <v>7</v>
       </c>
-      <c r="E64" s="16" t="s">
+      <c r="E64" s="88" t="s">
         <v>87</v>
       </c>
-      <c r="F64" s="45">
+      <c r="F64" s="89">
         <f t="shared" si="7"/>
         <v>700</v>
       </c>
-      <c r="G64" s="68">
+      <c r="G64" s="90">
         <f t="shared" si="6"/>
         <v>275</v>
       </c>
-      <c r="H64" s="73"/>
-    </row>
-    <row r="65" s="1" customFormat="1" ht="15" customHeight="1" spans="1:8">
-      <c r="A65" s="40"/>
-      <c r="B65" s="58">
-        <v>43170.3333333333</v>
-      </c>
-      <c r="C65" s="72" t="s">
+      <c r="H64" s="91"/>
+    </row>
+    <row r="65" spans="1:9" s="92" customFormat="1" ht="15" customHeight="1">
+      <c r="A65" s="93"/>
+      <c r="B65" s="85">
+        <v>43170.333333333299</v>
+      </c>
+      <c r="C65" s="86" t="s">
         <v>81</v>
       </c>
-      <c r="D65" s="59">
+      <c r="D65" s="87">
         <v>5</v>
       </c>
-      <c r="E65" s="16" t="s">
+      <c r="E65" s="88" t="s">
         <v>88</v>
       </c>
-      <c r="F65" s="45">
+      <c r="F65" s="89">
         <f t="shared" si="7"/>
         <v>500</v>
       </c>
-      <c r="G65" s="68">
+      <c r="G65" s="90">
         <f t="shared" si="6"/>
         <v>225</v>
       </c>
-      <c r="H65" s="73"/>
-    </row>
-    <row r="66" s="1" customFormat="1" ht="15" customHeight="1" spans="1:8">
-      <c r="A66" s="40"/>
-      <c r="B66" s="58">
-        <v>43175.8333333333</v>
-      </c>
-      <c r="C66" s="72" t="s">
+      <c r="H65" s="91"/>
+    </row>
+    <row r="66" spans="1:9" s="92" customFormat="1" ht="15" customHeight="1">
+      <c r="A66" s="93"/>
+      <c r="B66" s="85">
+        <v>43175.833333333299</v>
+      </c>
+      <c r="C66" s="86" t="s">
         <v>81</v>
       </c>
-      <c r="D66" s="59">
+      <c r="D66" s="87">
         <v>5</v>
       </c>
-      <c r="E66" s="16" t="s">
+      <c r="E66" s="88" t="s">
         <v>89</v>
       </c>
-      <c r="F66" s="45">
+      <c r="F66" s="89">
         <f t="shared" si="7"/>
         <v>500</v>
       </c>
-      <c r="G66" s="68">
-        <f t="shared" ref="G65:G78" si="8">100+25*D66</f>
+      <c r="G66" s="90">
+        <f t="shared" ref="G66:G78" si="8">100+25*D66</f>
         <v>225</v>
       </c>
-      <c r="H66" s="73"/>
-    </row>
-    <row r="67" s="1" customFormat="1" ht="15" customHeight="1" spans="1:8">
-      <c r="A67" s="40"/>
-      <c r="B67" s="58">
+      <c r="H66" s="91"/>
+    </row>
+    <row r="67" spans="1:9" s="92" customFormat="1" ht="15" customHeight="1">
+      <c r="A67" s="93"/>
+      <c r="B67" s="85">
         <v>43176.34375</v>
       </c>
-      <c r="C67" s="72" t="s">
+      <c r="C67" s="86" t="s">
         <v>83</v>
       </c>
-      <c r="D67" s="59">
+      <c r="D67" s="87">
         <v>5</v>
       </c>
-      <c r="E67" s="16" t="s">
+      <c r="E67" s="88" t="s">
         <v>90</v>
       </c>
-      <c r="F67" s="45">
+      <c r="F67" s="89">
         <f t="shared" si="7"/>
         <v>500</v>
       </c>
-      <c r="G67" s="68">
+      <c r="G67" s="90">
         <f t="shared" si="8"/>
         <v>225</v>
       </c>
-      <c r="H67" s="73"/>
-    </row>
-    <row r="68" s="1" customFormat="1" ht="15" customHeight="1" spans="1:8">
-      <c r="A68" s="40"/>
-      <c r="B68" s="58">
-        <v>43177.3333333333</v>
-      </c>
-      <c r="C68" s="72" t="s">
+      <c r="H67" s="91"/>
+    </row>
+    <row r="68" spans="1:9" s="92" customFormat="1" ht="15" customHeight="1">
+      <c r="A68" s="93"/>
+      <c r="B68" s="85">
+        <v>43177.333333333299</v>
+      </c>
+      <c r="C68" s="86" t="s">
         <v>81</v>
       </c>
-      <c r="D68" s="59">
+      <c r="D68" s="87">
         <v>5</v>
       </c>
-      <c r="E68" s="16" t="s">
+      <c r="E68" s="88" t="s">
         <v>91</v>
       </c>
-      <c r="F68" s="45">
+      <c r="F68" s="89">
         <f t="shared" si="7"/>
         <v>500</v>
       </c>
-      <c r="G68" s="68">
+      <c r="G68" s="90">
         <f t="shared" si="8"/>
         <v>225</v>
       </c>
-      <c r="H68" s="73"/>
-    </row>
-    <row r="69" s="1" customFormat="1" ht="15" customHeight="1" spans="1:8">
-      <c r="A69" s="40"/>
-      <c r="B69" s="58">
-        <v>43182.8333333333</v>
-      </c>
-      <c r="C69" s="72" t="s">
+      <c r="H68" s="91"/>
+    </row>
+    <row r="69" spans="1:9" s="92" customFormat="1" ht="15" customHeight="1">
+      <c r="A69" s="93"/>
+      <c r="B69" s="85">
+        <v>43182.833333333299</v>
+      </c>
+      <c r="C69" s="86" t="s">
         <v>81</v>
       </c>
-      <c r="D69" s="59">
+      <c r="D69" s="87">
         <v>4</v>
       </c>
-      <c r="E69" s="16" t="s">
+      <c r="E69" s="88" t="s">
         <v>92</v>
       </c>
-      <c r="F69" s="45">
+      <c r="F69" s="89">
         <f t="shared" si="7"/>
         <v>400</v>
       </c>
-      <c r="G69" s="68">
+      <c r="G69" s="90">
         <f t="shared" si="8"/>
         <v>200</v>
       </c>
-      <c r="H69" s="73"/>
-    </row>
-    <row r="70" s="1" customFormat="1" ht="15" customHeight="1" spans="1:8">
-      <c r="A70" s="40"/>
-      <c r="B70" s="58">
+      <c r="H69" s="91"/>
+    </row>
+    <row r="70" spans="1:9" s="92" customFormat="1" ht="15" customHeight="1">
+      <c r="A70" s="93"/>
+      <c r="B70" s="85">
         <v>43183.34375</v>
       </c>
-      <c r="C70" s="72" t="s">
+      <c r="C70" s="86" t="s">
         <v>83</v>
       </c>
-      <c r="D70" s="59">
+      <c r="D70" s="87">
         <v>6</v>
       </c>
-      <c r="E70" s="16" t="s">
+      <c r="E70" s="88" t="s">
         <v>93</v>
       </c>
-      <c r="F70" s="45">
+      <c r="F70" s="89">
         <f t="shared" si="7"/>
         <v>600</v>
       </c>
-      <c r="G70" s="68">
+      <c r="G70" s="90">
         <f t="shared" si="8"/>
         <v>250</v>
       </c>
-      <c r="H70" s="73"/>
-    </row>
-    <row r="71" s="1" customFormat="1" ht="15" customHeight="1" spans="1:8">
-      <c r="A71" s="40"/>
-      <c r="B71" s="58">
-        <v>43184.3333333333</v>
-      </c>
-      <c r="C71" s="72" t="s">
+      <c r="H70" s="91"/>
+    </row>
+    <row r="71" spans="1:9" s="92" customFormat="1" ht="15" customHeight="1">
+      <c r="A71" s="93"/>
+      <c r="B71" s="85">
+        <v>43184.333333333299</v>
+      </c>
+      <c r="C71" s="86" t="s">
         <v>81</v>
       </c>
-      <c r="D71" s="59">
+      <c r="D71" s="87">
         <v>6</v>
       </c>
-      <c r="E71" s="16" t="s">
+      <c r="E71" s="88" t="s">
         <v>94</v>
       </c>
-      <c r="F71" s="45">
+      <c r="F71" s="89">
         <f t="shared" si="7"/>
         <v>600</v>
       </c>
-      <c r="G71" s="68">
+      <c r="G71" s="90">
         <f t="shared" si="8"/>
         <v>250</v>
       </c>
-      <c r="H71" s="73"/>
-    </row>
-    <row r="72" s="1" customFormat="1" ht="15" customHeight="1" spans="1:8">
-      <c r="A72" s="40"/>
-      <c r="B72" s="58">
-        <v>43189.8333333333</v>
-      </c>
-      <c r="C72" s="72" t="s">
+      <c r="H71" s="91"/>
+    </row>
+    <row r="72" spans="1:9" s="92" customFormat="1" ht="15" customHeight="1">
+      <c r="A72" s="93"/>
+      <c r="B72" s="85">
+        <v>43189.833333333299</v>
+      </c>
+      <c r="C72" s="86" t="s">
         <v>81</v>
       </c>
-      <c r="D72" s="59">
+      <c r="D72" s="87">
         <v>5</v>
       </c>
-      <c r="E72" s="16" t="s">
+      <c r="E72" s="88" t="s">
         <v>89</v>
       </c>
-      <c r="F72" s="45">
+      <c r="F72" s="89">
         <f t="shared" si="7"/>
         <v>500</v>
       </c>
-      <c r="G72" s="68">
+      <c r="G72" s="90">
         <f t="shared" si="8"/>
         <v>225</v>
       </c>
-      <c r="H72" s="73"/>
-    </row>
-    <row r="73" s="1" customFormat="1" ht="15" customHeight="1" spans="1:8">
-      <c r="A73" s="40"/>
-      <c r="B73" s="58">
+      <c r="H72" s="91"/>
+    </row>
+    <row r="73" spans="1:9" s="92" customFormat="1" ht="15" customHeight="1">
+      <c r="A73" s="93"/>
+      <c r="B73" s="85">
         <v>43190.34375</v>
       </c>
-      <c r="C73" s="59" t="s">
+      <c r="C73" s="87" t="s">
         <v>83</v>
       </c>
-      <c r="D73" s="59">
+      <c r="D73" s="87">
         <v>8</v>
       </c>
-      <c r="E73" s="16" t="s">
+      <c r="E73" s="88" t="s">
         <v>95</v>
       </c>
-      <c r="F73" s="45">
+      <c r="F73" s="89">
         <f t="shared" si="7"/>
         <v>800</v>
       </c>
-      <c r="G73" s="68">
+      <c r="G73" s="90">
         <f t="shared" si="8"/>
         <v>300</v>
       </c>
-      <c r="H73" s="15"/>
-    </row>
-    <row r="74" s="1" customFormat="1" ht="15" customHeight="1" spans="1:8">
-      <c r="A74" s="71" t="s">
+      <c r="H73" s="94"/>
+    </row>
+    <row r="74" spans="1:9" s="1" customFormat="1" ht="15" customHeight="1">
+      <c r="A74" s="77" t="s">
         <v>96</v>
       </c>
-      <c r="B74" s="58">
-        <v>43162.3333333333</v>
-      </c>
-      <c r="C74" s="59" t="s">
+      <c r="B74" s="50">
+        <v>43162.333333333299</v>
+      </c>
+      <c r="C74" s="51" t="s">
         <v>97</v>
       </c>
-      <c r="D74" s="59">
+      <c r="D74" s="51">
         <v>6</v>
       </c>
-      <c r="E74" s="16" t="s">
+      <c r="E74" s="13" t="s">
         <v>98</v>
       </c>
-      <c r="F74" s="45">
+      <c r="F74" s="38">
         <f t="shared" si="7"/>
         <v>600</v>
       </c>
-      <c r="G74" s="68">
+      <c r="G74" s="58">
         <f t="shared" si="8"/>
         <v>250</v>
       </c>
-      <c r="H74" s="15"/>
-    </row>
-    <row r="75" s="1" customFormat="1" ht="15" customHeight="1" spans="1:8">
-      <c r="A75" s="40"/>
-      <c r="B75" s="58">
-        <v>43169.3333333333</v>
-      </c>
-      <c r="C75" s="59" t="s">
+      <c r="H74" s="12"/>
+    </row>
+    <row r="75" spans="1:9" s="1" customFormat="1" ht="15" customHeight="1">
+      <c r="A75" s="72"/>
+      <c r="B75" s="50">
+        <v>43169.333333333299</v>
+      </c>
+      <c r="C75" s="51" t="s">
         <v>97</v>
       </c>
-      <c r="D75" s="59">
+      <c r="D75" s="51">
         <v>7</v>
       </c>
-      <c r="E75" s="16" t="s">
+      <c r="E75" s="13" t="s">
         <v>99</v>
       </c>
-      <c r="F75" s="45">
+      <c r="F75" s="38">
         <f t="shared" si="7"/>
         <v>700</v>
       </c>
-      <c r="G75" s="68">
+      <c r="G75" s="58">
         <f t="shared" si="8"/>
         <v>275</v>
       </c>
-      <c r="H75" s="15"/>
-    </row>
-    <row r="76" s="1" customFormat="1" ht="15" customHeight="1" spans="1:8">
-      <c r="A76" s="40"/>
-      <c r="B76" s="58">
-        <v>43177.3333333333</v>
-      </c>
-      <c r="C76" s="59" t="s">
+      <c r="H75" s="12"/>
+    </row>
+    <row r="76" spans="1:9" s="1" customFormat="1" ht="15" customHeight="1">
+      <c r="A76" s="72"/>
+      <c r="B76" s="50">
+        <v>43177.333333333299</v>
+      </c>
+      <c r="C76" s="51" t="s">
         <v>97</v>
       </c>
-      <c r="D76" s="59">
+      <c r="D76" s="51">
         <v>5</v>
       </c>
-      <c r="E76" s="16" t="s">
+      <c r="E76" s="13" t="s">
         <v>100</v>
       </c>
-      <c r="F76" s="45">
+      <c r="F76" s="38">
         <f t="shared" si="7"/>
         <v>500</v>
       </c>
-      <c r="G76" s="68">
+      <c r="G76" s="58">
         <f t="shared" si="8"/>
         <v>225</v>
       </c>
-      <c r="H76" s="15"/>
-    </row>
-    <row r="77" s="1" customFormat="1" ht="15" customHeight="1" spans="1:8">
-      <c r="A77" s="40"/>
-      <c r="B77" s="58">
-        <v>43178.7291666667</v>
-      </c>
-      <c r="C77" s="59" t="s">
+      <c r="H76" s="12"/>
+    </row>
+    <row r="77" spans="1:9" s="1" customFormat="1" ht="15" customHeight="1">
+      <c r="A77" s="72"/>
+      <c r="B77" s="50">
+        <v>43178.729166666701</v>
+      </c>
+      <c r="C77" s="51" t="s">
         <v>101</v>
       </c>
-      <c r="D77" s="59">
+      <c r="D77" s="51">
         <v>4</v>
       </c>
-      <c r="E77" s="16" t="s">
+      <c r="E77" s="13" t="s">
         <v>102</v>
       </c>
-      <c r="F77" s="45">
+      <c r="F77" s="38">
         <f t="shared" si="7"/>
         <v>400</v>
       </c>
-      <c r="G77" s="68">
+      <c r="G77" s="58">
         <f t="shared" si="8"/>
         <v>200</v>
       </c>
-      <c r="H77" s="15"/>
-    </row>
-    <row r="78" s="1" customFormat="1" ht="15" customHeight="1" spans="1:8">
-      <c r="A78" s="40"/>
-      <c r="B78" s="58">
-        <v>43183.3333333333</v>
-      </c>
-      <c r="C78" s="59" t="s">
+      <c r="H77" s="12"/>
+    </row>
+    <row r="78" spans="1:9" s="1" customFormat="1" ht="15" customHeight="1">
+      <c r="A78" s="72"/>
+      <c r="B78" s="50">
+        <v>43183.333333333299</v>
+      </c>
+      <c r="C78" s="51" t="s">
         <v>97</v>
       </c>
-      <c r="D78" s="77">
+      <c r="D78" s="63">
         <v>4</v>
       </c>
-      <c r="E78" s="16" t="s">
+      <c r="E78" s="13" t="s">
         <v>103</v>
       </c>
-      <c r="F78" s="45">
+      <c r="F78" s="38">
         <f t="shared" si="7"/>
         <v>400</v>
       </c>
-      <c r="G78" s="68">
+      <c r="G78" s="58">
         <f t="shared" si="8"/>
         <v>200</v>
       </c>
-      <c r="H78" s="15"/>
-    </row>
-    <row r="79" s="1" customFormat="1" ht="15" customHeight="1" spans="1:9">
-      <c r="A79" s="78" t="s">
+      <c r="H78" s="12"/>
+    </row>
+    <row r="79" spans="1:9" s="1" customFormat="1" ht="15" customHeight="1">
+      <c r="A79" s="69" t="s">
         <v>104</v>
       </c>
-      <c r="B79" s="79"/>
-      <c r="C79" s="80"/>
-      <c r="D79" s="81">
+      <c r="B79" s="70"/>
+      <c r="C79" s="71"/>
+      <c r="D79" s="64">
         <f>SUM(D2:D78)</f>
         <v>495</v>
       </c>
-      <c r="E79" s="82"/>
-      <c r="F79" s="81">
+      <c r="E79" s="65"/>
+      <c r="F79" s="64">
         <f>SUM(F10:F78)</f>
         <v>38800</v>
       </c>
-      <c r="G79" s="83">
+      <c r="G79" s="66">
         <f>SUM(G10:G78)</f>
         <v>15923</v>
       </c>
-      <c r="H79" s="84"/>
-      <c r="I79" s="85"/>
-    </row>
-    <row r="80" s="2" customFormat="1" ht="21" customHeight="1" spans="5:6">
-      <c r="E80" s="24"/>
-      <c r="F80" s="24"/>
-    </row>
-    <row r="81" s="2" customFormat="1" ht="16.5" spans="5:6">
-      <c r="E81" s="26"/>
-      <c r="F81" s="26"/>
-    </row>
-    <row r="82" ht="16.5" spans="5:8">
-      <c r="E82" s="28"/>
-      <c r="F82" s="28"/>
-      <c r="H82" s="30"/>
-    </row>
-    <row r="83" ht="16.5" spans="5:8">
-      <c r="E83" s="31"/>
-      <c r="F83" s="31"/>
-      <c r="H83" s="30"/>
-    </row>
-    <row r="84" ht="16.5" spans="5:8">
-      <c r="E84" s="33"/>
-      <c r="F84" s="33"/>
-      <c r="H84" s="30"/>
-    </row>
-    <row r="85" ht="16.5" spans="5:8">
-      <c r="E85" s="35"/>
-      <c r="F85" s="35"/>
-      <c r="H85" s="36"/>
-    </row>
-    <row r="86" ht="16.5" spans="5:8">
-      <c r="E86" s="35"/>
-      <c r="F86" s="35"/>
-      <c r="H86" s="30"/>
-    </row>
-    <row r="87" ht="16.5" spans="8:8">
-      <c r="H87" s="30"/>
-    </row>
-    <row r="88" ht="16.5" spans="8:8">
-      <c r="H88" s="30"/>
-    </row>
-    <row r="89" ht="16.5" spans="8:8">
-      <c r="H89" s="30"/>
-    </row>
-    <row r="90" ht="16.5" spans="8:8">
-      <c r="H90" s="30"/>
-    </row>
-    <row r="91" ht="18" spans="8:8">
-      <c r="H91" s="37"/>
-    </row>
-    <row r="92" spans="8:8">
-      <c r="H92" s="38"/>
+      <c r="H79" s="67"/>
+      <c r="I79" s="68"/>
+    </row>
+    <row r="80" spans="1:9" s="2" customFormat="1" ht="21" customHeight="1">
+      <c r="E80" s="18"/>
+      <c r="F80" s="18"/>
+    </row>
+    <row r="81" spans="5:8" s="2" customFormat="1" ht="16.5">
+      <c r="E81" s="20"/>
+      <c r="F81" s="20"/>
+    </row>
+    <row r="82" spans="5:8" ht="16.5">
+      <c r="E82" s="22"/>
+      <c r="F82" s="22"/>
+      <c r="H82" s="24"/>
+    </row>
+    <row r="83" spans="5:8" ht="16.5">
+      <c r="E83" s="25"/>
+      <c r="F83" s="25"/>
+      <c r="H83" s="24"/>
+    </row>
+    <row r="84" spans="5:8" ht="16.5">
+      <c r="E84" s="27"/>
+      <c r="F84" s="27"/>
+      <c r="H84" s="24"/>
+    </row>
+    <row r="85" spans="5:8" ht="16.5">
+      <c r="E85" s="29"/>
+      <c r="F85" s="29"/>
+      <c r="H85" s="30"/>
+    </row>
+    <row r="86" spans="5:8" ht="16.5">
+      <c r="E86" s="29"/>
+      <c r="F86" s="29"/>
+      <c r="H86" s="24"/>
+    </row>
+    <row r="87" spans="5:8" ht="16.5">
+      <c r="H87" s="24"/>
+    </row>
+    <row r="88" spans="5:8" ht="16.5">
+      <c r="H88" s="24"/>
+    </row>
+    <row r="89" spans="5:8" ht="16.5">
+      <c r="H89" s="24"/>
+    </row>
+    <row r="90" spans="5:8" ht="16.5">
+      <c r="H90" s="24"/>
+    </row>
+    <row r="91" spans="5:8" ht="18">
+      <c r="H91" s="31"/>
+    </row>
+    <row r="92" spans="5:8">
+      <c r="H92" s="32"/>
     </row>
   </sheetData>
   <autoFilter ref="A1:M79">
@@ -4268,715 +3694,714 @@
     <mergeCell ref="A60:A73"/>
     <mergeCell ref="A74:A78"/>
   </mergeCells>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
+  <phoneticPr fontId="18" type="noConversion"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.51180555555555596" footer="0.51180555555555596"/>
   <pageSetup paperSize="9" orientation="portrait"/>
-  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:G45"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F4" sqref="F4"/>
+    <sheetView tabSelected="1" topLeftCell="A6" workbookViewId="0">
+      <selection activeCell="C3" sqref="C3:C31"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="6"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <cols>
     <col min="1" max="1" width="13.875" customWidth="1"/>
     <col min="2" max="2" width="16" customWidth="1"/>
     <col min="3" max="3" width="16.625" customWidth="1"/>
-    <col min="4" max="4" width="5.4" customWidth="1"/>
+    <col min="4" max="4" width="5.375" customWidth="1"/>
     <col min="5" max="5" width="55.5" customWidth="1"/>
     <col min="6" max="6" width="7.25" style="3" customWidth="1"/>
     <col min="7" max="7" width="11" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" s="1" customFormat="1" ht="24" customHeight="1" spans="1:7">
-      <c r="A1" s="4" t="s">
+    <row r="1" spans="1:7" s="1" customFormat="1" ht="24" customHeight="1">
+      <c r="A1" s="78" t="s">
         <v>105</v>
       </c>
-      <c r="B1" s="5"/>
-      <c r="C1" s="5"/>
-      <c r="D1" s="5"/>
-      <c r="E1" s="5"/>
-      <c r="F1" s="5"/>
-      <c r="G1" s="5"/>
-    </row>
-    <row r="2" s="1" customFormat="1" ht="48" customHeight="1" spans="1:7">
-      <c r="A2" s="6" t="s">
+      <c r="B1" s="79"/>
+      <c r="C1" s="79"/>
+      <c r="D1" s="79"/>
+      <c r="E1" s="79"/>
+      <c r="F1" s="79"/>
+      <c r="G1" s="79"/>
+    </row>
+    <row r="2" spans="1:7" s="1" customFormat="1" ht="48" customHeight="1">
+      <c r="A2" s="4" t="s">
         <v>106</v>
       </c>
-      <c r="B2" s="7" t="s">
+      <c r="B2" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="7" t="s">
+      <c r="C2" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="D2" s="8" t="s">
+      <c r="D2" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="E2" s="8" t="s">
+      <c r="E2" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="F2" s="8"/>
-      <c r="G2" s="9" t="s">
+      <c r="F2" s="6"/>
+      <c r="G2" s="7" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="3" s="1" customFormat="1" ht="19" customHeight="1" spans="1:7">
-      <c r="A3" s="10" t="s">
+    <row r="3" spans="1:7" s="1" customFormat="1" ht="18.95" customHeight="1">
+      <c r="A3" s="82" t="s">
         <v>107</v>
       </c>
-      <c r="B3" s="11">
-        <v>43161.7083333333</v>
-      </c>
-      <c r="C3" s="12" t="s">
+      <c r="B3" s="8">
+        <v>43161.708333333299</v>
+      </c>
+      <c r="C3" s="9" t="s">
         <v>108</v>
       </c>
-      <c r="D3" s="13">
+      <c r="D3" s="10">
         <v>7</v>
       </c>
-      <c r="E3" s="14" t="s">
+      <c r="E3" s="11" t="s">
         <v>109</v>
       </c>
-      <c r="F3" s="12">
+      <c r="F3" s="9">
         <f>D3*83</f>
         <v>581</v>
       </c>
-      <c r="G3" s="15"/>
-    </row>
-    <row r="4" s="1" customFormat="1" ht="19" customHeight="1" spans="1:7">
-      <c r="A4" s="10"/>
-      <c r="B4" s="11">
-        <v>43166.7083333333</v>
-      </c>
-      <c r="C4" s="12" t="s">
+      <c r="G3" s="12"/>
+    </row>
+    <row r="4" spans="1:7" s="1" customFormat="1" ht="18.95" customHeight="1">
+      <c r="A4" s="82"/>
+      <c r="B4" s="8">
+        <v>43166.708333333299</v>
+      </c>
+      <c r="C4" s="9" t="s">
         <v>108</v>
       </c>
-      <c r="D4" s="13">
+      <c r="D4" s="10">
         <v>7</v>
       </c>
-      <c r="E4" s="16" t="s">
+      <c r="E4" s="13" t="s">
         <v>110</v>
       </c>
-      <c r="F4" s="12">
+      <c r="F4" s="9">
         <f t="shared" ref="F4:F11" si="0">D4*83</f>
         <v>581</v>
       </c>
-      <c r="G4" s="15"/>
-    </row>
-    <row r="5" s="1" customFormat="1" ht="32" customHeight="1" spans="1:7">
-      <c r="A5" s="10"/>
-      <c r="B5" s="11">
-        <v>43168.7083333333</v>
-      </c>
-      <c r="C5" s="12" t="s">
+      <c r="G4" s="12"/>
+    </row>
+    <row r="5" spans="1:7" s="1" customFormat="1" ht="32.1" customHeight="1">
+      <c r="A5" s="82"/>
+      <c r="B5" s="8">
+        <v>43168.708333333299</v>
+      </c>
+      <c r="C5" s="9" t="s">
         <v>108</v>
       </c>
-      <c r="D5" s="13">
+      <c r="D5" s="10">
         <v>9</v>
       </c>
-      <c r="E5" s="14" t="s">
+      <c r="E5" s="11" t="s">
         <v>111</v>
       </c>
-      <c r="F5" s="12">
+      <c r="F5" s="9">
         <f t="shared" si="0"/>
         <v>747</v>
       </c>
-      <c r="G5" s="15"/>
-    </row>
-    <row r="6" s="1" customFormat="1" ht="15" customHeight="1" spans="1:7">
-      <c r="A6" s="10"/>
-      <c r="B6" s="11">
-        <v>43173.7083333333</v>
-      </c>
-      <c r="C6" s="12" t="s">
+      <c r="G5" s="12"/>
+    </row>
+    <row r="6" spans="1:7" s="1" customFormat="1" ht="15" customHeight="1">
+      <c r="A6" s="82"/>
+      <c r="B6" s="8">
+        <v>43173.708333333299</v>
+      </c>
+      <c r="C6" s="9" t="s">
         <v>108</v>
       </c>
-      <c r="D6" s="13">
+      <c r="D6" s="10">
         <v>5</v>
       </c>
-      <c r="E6" s="16" t="s">
+      <c r="E6" s="13" t="s">
         <v>112</v>
       </c>
-      <c r="F6" s="12">
+      <c r="F6" s="9">
         <f t="shared" si="0"/>
         <v>415</v>
       </c>
-      <c r="G6" s="15"/>
-    </row>
-    <row r="7" s="1" customFormat="1" ht="15" customHeight="1" spans="1:7">
-      <c r="A7" s="10"/>
-      <c r="B7" s="11">
-        <v>43175.7138888889</v>
-      </c>
-      <c r="C7" s="12" t="s">
+      <c r="G6" s="12"/>
+    </row>
+    <row r="7" spans="1:7" s="1" customFormat="1" ht="15" customHeight="1">
+      <c r="A7" s="82"/>
+      <c r="B7" s="8">
+        <v>43175.713888888902</v>
+      </c>
+      <c r="C7" s="9" t="s">
         <v>108</v>
       </c>
-      <c r="D7" s="13">
+      <c r="D7" s="10">
         <v>6</v>
       </c>
-      <c r="E7" s="16" t="s">
+      <c r="E7" s="13" t="s">
         <v>113</v>
       </c>
-      <c r="F7" s="12">
+      <c r="F7" s="9">
         <f t="shared" si="0"/>
         <v>498</v>
       </c>
-      <c r="G7" s="15"/>
-    </row>
-    <row r="8" s="1" customFormat="1" ht="15" customHeight="1" spans="1:7">
-      <c r="A8" s="10"/>
-      <c r="B8" s="11">
-        <v>43180.7083333333</v>
-      </c>
-      <c r="C8" s="12" t="s">
+      <c r="G7" s="12"/>
+    </row>
+    <row r="8" spans="1:7" s="1" customFormat="1" ht="15" customHeight="1">
+      <c r="A8" s="82"/>
+      <c r="B8" s="8">
+        <v>43180.708333333299</v>
+      </c>
+      <c r="C8" s="9" t="s">
         <v>108</v>
       </c>
-      <c r="D8" s="13">
+      <c r="D8" s="10">
         <v>7</v>
       </c>
-      <c r="E8" s="16" t="s">
+      <c r="E8" s="13" t="s">
         <v>114</v>
       </c>
-      <c r="F8" s="12">
+      <c r="F8" s="9">
         <f t="shared" si="0"/>
         <v>581</v>
       </c>
-      <c r="G8" s="15"/>
-    </row>
-    <row r="9" s="1" customFormat="1" ht="30" customHeight="1" spans="1:7">
-      <c r="A9" s="10"/>
-      <c r="B9" s="11">
-        <v>43182.7083333333</v>
-      </c>
-      <c r="C9" s="12" t="s">
+      <c r="G8" s="12"/>
+    </row>
+    <row r="9" spans="1:7" s="1" customFormat="1" ht="30" customHeight="1">
+      <c r="A9" s="82"/>
+      <c r="B9" s="8">
+        <v>43182.708333333299</v>
+      </c>
+      <c r="C9" s="9" t="s">
         <v>108</v>
       </c>
-      <c r="D9" s="13">
+      <c r="D9" s="10">
         <v>8</v>
       </c>
-      <c r="E9" s="14" t="s">
+      <c r="E9" s="11" t="s">
         <v>115</v>
       </c>
-      <c r="F9" s="12">
+      <c r="F9" s="9">
         <f t="shared" si="0"/>
         <v>664</v>
       </c>
-      <c r="G9" s="15"/>
-    </row>
-    <row r="10" s="1" customFormat="1" ht="15" customHeight="1" spans="1:7">
-      <c r="A10" s="10"/>
-      <c r="B10" s="11">
-        <v>43187.7291666667</v>
-      </c>
-      <c r="C10" s="12" t="s">
+      <c r="G9" s="12"/>
+    </row>
+    <row r="10" spans="1:7" s="1" customFormat="1" ht="15" customHeight="1">
+      <c r="A10" s="82"/>
+      <c r="B10" s="8">
+        <v>43187.729166666701</v>
+      </c>
+      <c r="C10" s="9" t="s">
         <v>108</v>
       </c>
-      <c r="D10" s="13">
+      <c r="D10" s="10">
         <v>6</v>
       </c>
-      <c r="E10" s="16" t="s">
+      <c r="E10" s="13" t="s">
         <v>116</v>
       </c>
-      <c r="F10" s="12">
+      <c r="F10" s="9">
         <f t="shared" si="0"/>
         <v>498</v>
       </c>
-      <c r="G10" s="15"/>
-    </row>
-    <row r="11" s="1" customFormat="1" ht="30" customHeight="1" spans="1:7">
-      <c r="A11" s="10"/>
-      <c r="B11" s="11">
-        <v>43189.7083333333</v>
-      </c>
-      <c r="C11" s="12" t="s">
+      <c r="G10" s="12"/>
+    </row>
+    <row r="11" spans="1:7" s="1" customFormat="1" ht="30" customHeight="1">
+      <c r="A11" s="82"/>
+      <c r="B11" s="8">
+        <v>43189.708333333299</v>
+      </c>
+      <c r="C11" s="9" t="s">
         <v>108</v>
       </c>
-      <c r="D11" s="13">
+      <c r="D11" s="10">
         <v>9</v>
       </c>
-      <c r="E11" s="14" t="s">
+      <c r="E11" s="11" t="s">
         <v>117</v>
       </c>
-      <c r="F11" s="12">
+      <c r="F11" s="9">
         <f t="shared" si="0"/>
         <v>747</v>
       </c>
-      <c r="G11" s="15"/>
-    </row>
-    <row r="12" s="1" customFormat="1" ht="19.05" customHeight="1" spans="1:7">
-      <c r="A12" s="17" t="s">
+      <c r="G11" s="12"/>
+    </row>
+    <row r="12" spans="1:7" s="1" customFormat="1" ht="19.149999999999999" customHeight="1">
+      <c r="A12" s="83" t="s">
         <v>118</v>
       </c>
-      <c r="B12" s="11">
-        <v>43160.6666666667</v>
-      </c>
-      <c r="C12" s="18" t="s">
+      <c r="B12" s="8">
+        <v>43160.666666666701</v>
+      </c>
+      <c r="C12" s="14" t="s">
         <v>119</v>
       </c>
-      <c r="D12" s="13">
+      <c r="D12" s="10">
         <v>7</v>
       </c>
-      <c r="E12" s="16" t="s">
+      <c r="E12" s="13" t="s">
         <v>120</v>
       </c>
-      <c r="F12" s="18">
+      <c r="F12" s="14">
         <f>D12*88</f>
         <v>616</v>
       </c>
-      <c r="G12" s="15"/>
-    </row>
-    <row r="13" s="1" customFormat="1" ht="15" customHeight="1" spans="1:7">
-      <c r="A13" s="10"/>
-      <c r="B13" s="11">
+      <c r="G12" s="12"/>
+    </row>
+    <row r="13" spans="1:7" s="1" customFormat="1" ht="15" customHeight="1">
+      <c r="A13" s="82"/>
+      <c r="B13" s="8">
         <v>43162.625</v>
       </c>
-      <c r="C13" s="18" t="s">
+      <c r="C13" s="14" t="s">
         <v>119</v>
       </c>
-      <c r="D13" s="13">
+      <c r="D13" s="10">
         <v>4</v>
       </c>
-      <c r="E13" s="16" t="s">
+      <c r="E13" s="13" t="s">
         <v>121</v>
       </c>
-      <c r="F13" s="18">
-        <f t="shared" ref="F13:F22" si="1">D13*88</f>
+      <c r="F13" s="14">
+        <f t="shared" ref="F13:F21" si="1">D13*88</f>
         <v>352</v>
       </c>
-      <c r="G13" s="15"/>
-    </row>
-    <row r="14" s="1" customFormat="1" ht="15" customHeight="1" spans="1:7">
-      <c r="A14" s="10"/>
-      <c r="B14" s="11">
+      <c r="G13" s="12"/>
+    </row>
+    <row r="14" spans="1:7" s="1" customFormat="1" ht="15" customHeight="1">
+      <c r="A14" s="82"/>
+      <c r="B14" s="8">
         <v>43163.4375</v>
       </c>
-      <c r="C14" s="18" t="s">
+      <c r="C14" s="14" t="s">
         <v>119</v>
       </c>
-      <c r="D14" s="13">
+      <c r="D14" s="10">
         <v>1</v>
       </c>
-      <c r="E14" s="19" t="s">
+      <c r="E14" s="15" t="s">
         <v>122</v>
       </c>
-      <c r="F14" s="18">
+      <c r="F14" s="14">
         <f t="shared" si="1"/>
         <v>88</v>
       </c>
-      <c r="G14" s="15"/>
-    </row>
-    <row r="15" s="1" customFormat="1" ht="15" customHeight="1" spans="1:7">
-      <c r="A15" s="10"/>
-      <c r="B15" s="11">
+      <c r="G14" s="12"/>
+    </row>
+    <row r="15" spans="1:7" s="1" customFormat="1" ht="15" customHeight="1">
+      <c r="A15" s="82"/>
+      <c r="B15" s="8">
         <v>43169.625</v>
       </c>
-      <c r="C15" s="18" t="s">
+      <c r="C15" s="14" t="s">
         <v>119</v>
       </c>
-      <c r="D15" s="13">
+      <c r="D15" s="10">
         <v>7</v>
       </c>
-      <c r="E15" s="16" t="s">
+      <c r="E15" s="13" t="s">
         <v>123</v>
       </c>
-      <c r="F15" s="18">
+      <c r="F15" s="14">
         <f t="shared" si="1"/>
         <v>616</v>
       </c>
-      <c r="G15" s="15"/>
-    </row>
-    <row r="16" s="1" customFormat="1" ht="15" customHeight="1" spans="1:7">
-      <c r="A16" s="10"/>
-      <c r="B16" s="11">
-        <v>43174.6666666667</v>
-      </c>
-      <c r="C16" s="18" t="s">
+      <c r="G15" s="12"/>
+    </row>
+    <row r="16" spans="1:7" s="1" customFormat="1" ht="15" customHeight="1">
+      <c r="A16" s="82"/>
+      <c r="B16" s="8">
+        <v>43174.666666666701</v>
+      </c>
+      <c r="C16" s="14" t="s">
         <v>119</v>
       </c>
-      <c r="D16" s="13">
+      <c r="D16" s="10">
         <v>6</v>
       </c>
-      <c r="E16" s="16" t="s">
+      <c r="E16" s="13" t="s">
         <v>124</v>
       </c>
-      <c r="F16" s="18">
+      <c r="F16" s="14">
         <f t="shared" si="1"/>
         <v>528</v>
       </c>
-      <c r="G16" s="15"/>
-    </row>
-    <row r="17" s="1" customFormat="1" ht="15" customHeight="1" spans="1:7">
-      <c r="A17" s="10"/>
-      <c r="B17" s="11">
+      <c r="G16" s="12"/>
+    </row>
+    <row r="17" spans="1:7" s="1" customFormat="1" ht="15" customHeight="1">
+      <c r="A17" s="82"/>
+      <c r="B17" s="8">
         <v>43176.625</v>
       </c>
-      <c r="C17" s="18" t="s">
+      <c r="C17" s="14" t="s">
         <v>119</v>
       </c>
-      <c r="D17" s="13">
+      <c r="D17" s="10">
         <v>6</v>
       </c>
-      <c r="E17" s="16" t="s">
+      <c r="E17" s="13" t="s">
         <v>125</v>
       </c>
-      <c r="F17" s="18">
+      <c r="F17" s="14">
         <f t="shared" si="1"/>
         <v>528</v>
       </c>
-      <c r="G17" s="15"/>
-    </row>
-    <row r="18" s="1" customFormat="1" ht="30" customHeight="1" spans="1:7">
-      <c r="A18" s="10"/>
-      <c r="B18" s="11">
-        <v>43181.6666666667</v>
-      </c>
-      <c r="C18" s="18" t="s">
+      <c r="G17" s="12"/>
+    </row>
+    <row r="18" spans="1:7" s="1" customFormat="1" ht="30" customHeight="1">
+      <c r="A18" s="82"/>
+      <c r="B18" s="8">
+        <v>43181.666666666701</v>
+      </c>
+      <c r="C18" s="14" t="s">
         <v>119</v>
       </c>
-      <c r="D18" s="13">
+      <c r="D18" s="10">
         <v>8</v>
       </c>
-      <c r="E18" s="14" t="s">
+      <c r="E18" s="11" t="s">
         <v>126</v>
       </c>
-      <c r="F18" s="18">
+      <c r="F18" s="14">
         <f t="shared" si="1"/>
         <v>704</v>
       </c>
-      <c r="G18" s="15"/>
-    </row>
-    <row r="19" s="1" customFormat="1" ht="15" customHeight="1" spans="1:7">
-      <c r="A19" s="10"/>
-      <c r="B19" s="11">
+      <c r="G18" s="12"/>
+    </row>
+    <row r="19" spans="1:7" s="1" customFormat="1" ht="15" customHeight="1">
+      <c r="A19" s="82"/>
+      <c r="B19" s="8">
         <v>43183.625</v>
       </c>
-      <c r="C19" s="18" t="s">
+      <c r="C19" s="14" t="s">
         <v>119</v>
       </c>
-      <c r="D19" s="13">
+      <c r="D19" s="10">
         <v>7</v>
       </c>
-      <c r="E19" s="16" t="s">
+      <c r="E19" s="13" t="s">
         <v>127</v>
       </c>
-      <c r="F19" s="18">
+      <c r="F19" s="14">
         <f t="shared" si="1"/>
         <v>616</v>
       </c>
-      <c r="G19" s="15"/>
-    </row>
-    <row r="20" s="1" customFormat="1" ht="15" customHeight="1" spans="1:7">
-      <c r="A20" s="10"/>
-      <c r="B20" s="11">
-        <v>43184.5833333333</v>
-      </c>
-      <c r="C20" s="18" t="s">
+      <c r="G19" s="12"/>
+    </row>
+    <row r="20" spans="1:7" s="1" customFormat="1" ht="15" customHeight="1">
+      <c r="A20" s="82"/>
+      <c r="B20" s="8">
+        <v>43184.583333333299</v>
+      </c>
+      <c r="C20" s="14" t="s">
         <v>119</v>
       </c>
-      <c r="D20" s="13">
+      <c r="D20" s="10">
         <v>1</v>
       </c>
-      <c r="E20" s="16" t="s">
+      <c r="E20" s="13" t="s">
         <v>128</v>
       </c>
-      <c r="F20" s="18">
+      <c r="F20" s="14">
         <f t="shared" si="1"/>
         <v>88</v>
       </c>
-      <c r="G20" s="15"/>
-    </row>
-    <row r="21" s="1" customFormat="1" ht="15" customHeight="1" spans="1:7">
-      <c r="A21" s="10"/>
-      <c r="B21" s="11">
+      <c r="G20" s="12"/>
+    </row>
+    <row r="21" spans="1:7" s="1" customFormat="1" ht="15" customHeight="1">
+      <c r="A21" s="82"/>
+      <c r="B21" s="8">
         <v>43190.625</v>
       </c>
-      <c r="C21" s="18" t="s">
+      <c r="C21" s="14" t="s">
         <v>119</v>
       </c>
-      <c r="D21" s="13">
+      <c r="D21" s="10">
         <v>4</v>
       </c>
-      <c r="E21" s="16" t="s">
+      <c r="E21" s="13" t="s">
         <v>129</v>
       </c>
-      <c r="F21" s="18">
+      <c r="F21" s="14">
         <f t="shared" si="1"/>
         <v>352</v>
       </c>
-      <c r="G21" s="15"/>
-    </row>
-    <row r="22" s="1" customFormat="1" ht="15" customHeight="1" spans="1:7">
-      <c r="A22" s="10" t="s">
+      <c r="G21" s="12"/>
+    </row>
+    <row r="22" spans="1:7" s="1" customFormat="1" ht="15" customHeight="1">
+      <c r="A22" s="82" t="s">
         <v>130</v>
       </c>
-      <c r="B22" s="11">
+      <c r="B22" s="8">
         <v>43162.625</v>
       </c>
-      <c r="C22" s="18" t="s">
+      <c r="C22" s="14" t="s">
         <v>131</v>
       </c>
-      <c r="D22" s="13">
+      <c r="D22" s="10">
         <v>1</v>
       </c>
-      <c r="E22" s="16" t="s">
+      <c r="E22" s="13" t="s">
         <v>132</v>
       </c>
-      <c r="F22" s="18">
+      <c r="F22" s="14">
         <f>D22*100</f>
         <v>100</v>
       </c>
-      <c r="G22" s="15"/>
-    </row>
-    <row r="23" s="1" customFormat="1" ht="15" customHeight="1" spans="1:7">
-      <c r="A23" s="10"/>
-      <c r="B23" s="11">
+      <c r="G22" s="12"/>
+    </row>
+    <row r="23" spans="1:7" s="1" customFormat="1" ht="15" customHeight="1">
+      <c r="A23" s="82"/>
+      <c r="B23" s="8">
         <v>43163.4375</v>
       </c>
-      <c r="C23" s="18" t="s">
+      <c r="C23" s="14" t="s">
         <v>131</v>
       </c>
-      <c r="D23" s="13">
+      <c r="D23" s="10">
         <v>4</v>
       </c>
-      <c r="E23" s="19" t="s">
+      <c r="E23" s="15" t="s">
         <v>133</v>
       </c>
-      <c r="F23" s="18">
+      <c r="F23" s="14">
         <f t="shared" ref="F23:F31" si="2">D23*100</f>
         <v>400</v>
       </c>
-      <c r="G23" s="15"/>
-    </row>
-    <row r="24" s="1" customFormat="1" ht="15" customHeight="1" spans="1:7">
-      <c r="A24" s="10"/>
-      <c r="B24" s="11">
-        <v>43163.5833333333</v>
-      </c>
-      <c r="C24" s="18" t="s">
+      <c r="G23" s="12"/>
+    </row>
+    <row r="24" spans="1:7" s="1" customFormat="1" ht="15" customHeight="1">
+      <c r="A24" s="82"/>
+      <c r="B24" s="8">
+        <v>43163.583333333299</v>
+      </c>
+      <c r="C24" s="14" t="s">
         <v>134</v>
       </c>
-      <c r="D24" s="13">
+      <c r="D24" s="10">
         <v>6</v>
       </c>
-      <c r="E24" s="16" t="s">
+      <c r="E24" s="13" t="s">
         <v>135</v>
       </c>
-      <c r="F24" s="18">
+      <c r="F24" s="14">
         <f t="shared" si="2"/>
         <v>600</v>
       </c>
-      <c r="G24" s="15"/>
-    </row>
-    <row r="25" s="1" customFormat="1" ht="15" customHeight="1" spans="1:7">
-      <c r="A25" s="10"/>
-      <c r="B25" s="11">
+      <c r="G24" s="12"/>
+    </row>
+    <row r="25" spans="1:7" s="1" customFormat="1" ht="15" customHeight="1">
+      <c r="A25" s="82"/>
+      <c r="B25" s="8">
         <v>43169.625</v>
       </c>
-      <c r="C25" s="18" t="s">
+      <c r="C25" s="14" t="s">
         <v>131</v>
       </c>
-      <c r="D25" s="13">
+      <c r="D25" s="10">
         <v>1</v>
       </c>
-      <c r="E25" s="19" t="s">
+      <c r="E25" s="15" t="s">
         <v>136</v>
       </c>
-      <c r="F25" s="18">
+      <c r="F25" s="14">
         <f t="shared" si="2"/>
         <v>100</v>
       </c>
-      <c r="G25" s="15"/>
-    </row>
-    <row r="26" s="1" customFormat="1" ht="15" customHeight="1" spans="1:7">
-      <c r="A26" s="10"/>
-      <c r="B26" s="11">
+      <c r="G25" s="12"/>
+    </row>
+    <row r="26" spans="1:7" s="1" customFormat="1" ht="15" customHeight="1">
+      <c r="A26" s="82"/>
+      <c r="B26" s="8">
         <v>43170.4375</v>
       </c>
-      <c r="C26" s="18" t="s">
+      <c r="C26" s="14" t="s">
         <v>131</v>
       </c>
-      <c r="D26" s="13">
+      <c r="D26" s="10">
         <v>4</v>
       </c>
-      <c r="E26" s="16" t="s">
+      <c r="E26" s="13" t="s">
         <v>137</v>
       </c>
-      <c r="F26" s="18">
+      <c r="F26" s="14">
         <f t="shared" si="2"/>
         <v>400</v>
       </c>
-      <c r="G26" s="15"/>
-    </row>
-    <row r="27" s="1" customFormat="1" ht="33" customHeight="1" spans="1:7">
-      <c r="A27" s="10"/>
-      <c r="B27" s="11">
-        <v>43170.5833333333</v>
-      </c>
-      <c r="C27" s="18" t="s">
+      <c r="G26" s="12"/>
+    </row>
+    <row r="27" spans="1:7" s="1" customFormat="1" ht="33" customHeight="1">
+      <c r="A27" s="82"/>
+      <c r="B27" s="8">
+        <v>43170.583333333299</v>
+      </c>
+      <c r="C27" s="14" t="s">
         <v>134</v>
       </c>
-      <c r="D27" s="13">
+      <c r="D27" s="10">
         <v>9</v>
       </c>
-      <c r="E27" s="14" t="s">
+      <c r="E27" s="11" t="s">
         <v>138</v>
       </c>
-      <c r="F27" s="18">
+      <c r="F27" s="14">
         <f t="shared" si="2"/>
         <v>900</v>
       </c>
-      <c r="G27" s="15"/>
-    </row>
-    <row r="28" s="1" customFormat="1" ht="15" customHeight="1" spans="1:7">
-      <c r="A28" s="10"/>
-      <c r="B28" s="11">
+      <c r="G27" s="12"/>
+    </row>
+    <row r="28" spans="1:7" s="1" customFormat="1" ht="15" customHeight="1">
+      <c r="A28" s="82"/>
+      <c r="B28" s="8">
         <v>43177.4375</v>
       </c>
-      <c r="C28" s="18" t="s">
+      <c r="C28" s="14" t="s">
         <v>131</v>
       </c>
-      <c r="D28" s="13">
+      <c r="D28" s="10">
         <v>4</v>
       </c>
-      <c r="E28" s="16" t="s">
+      <c r="E28" s="13" t="s">
         <v>137</v>
       </c>
-      <c r="F28" s="18">
+      <c r="F28" s="14">
         <f t="shared" si="2"/>
         <v>400</v>
       </c>
-      <c r="G28" s="15"/>
-    </row>
-    <row r="29" s="1" customFormat="1" ht="15" customHeight="1" spans="1:7">
-      <c r="A29" s="10"/>
-      <c r="B29" s="11">
-        <v>43177.5833333333</v>
-      </c>
-      <c r="C29" s="18" t="s">
+      <c r="G28" s="12"/>
+    </row>
+    <row r="29" spans="1:7" s="1" customFormat="1" ht="15" customHeight="1">
+      <c r="A29" s="82"/>
+      <c r="B29" s="8">
+        <v>43177.583333333299</v>
+      </c>
+      <c r="C29" s="14" t="s">
         <v>134</v>
       </c>
-      <c r="D29" s="13">
+      <c r="D29" s="10">
         <v>8</v>
       </c>
-      <c r="E29" s="16" t="s">
+      <c r="E29" s="13" t="s">
         <v>139</v>
       </c>
-      <c r="F29" s="18">
+      <c r="F29" s="14">
         <f t="shared" si="2"/>
         <v>800</v>
       </c>
-      <c r="G29" s="15"/>
-    </row>
-    <row r="30" s="1" customFormat="1" ht="15" customHeight="1" spans="1:7">
-      <c r="A30" s="10"/>
-      <c r="B30" s="11">
+      <c r="G29" s="12"/>
+    </row>
+    <row r="30" spans="1:7" s="1" customFormat="1" ht="15" customHeight="1">
+      <c r="A30" s="82"/>
+      <c r="B30" s="8">
         <v>43184.4375</v>
       </c>
-      <c r="C30" s="18" t="s">
+      <c r="C30" s="14" t="s">
         <v>131</v>
       </c>
-      <c r="D30" s="13">
+      <c r="D30" s="10">
         <v>3</v>
       </c>
-      <c r="E30" s="16" t="s">
+      <c r="E30" s="13" t="s">
         <v>140</v>
       </c>
-      <c r="F30" s="18">
+      <c r="F30" s="14">
         <f t="shared" si="2"/>
         <v>300</v>
       </c>
-      <c r="G30" s="15"/>
-    </row>
-    <row r="31" s="1" customFormat="1" ht="15" customHeight="1" spans="1:7">
-      <c r="A31" s="10"/>
-      <c r="B31" s="11">
-        <v>43184.5833333333</v>
-      </c>
-      <c r="C31" s="18" t="s">
+      <c r="G30" s="12"/>
+    </row>
+    <row r="31" spans="1:7" s="1" customFormat="1" ht="15" customHeight="1">
+      <c r="A31" s="82"/>
+      <c r="B31" s="8">
+        <v>43184.583333333299</v>
+      </c>
+      <c r="C31" s="14" t="s">
         <v>134</v>
       </c>
-      <c r="D31" s="13">
+      <c r="D31" s="10">
         <v>8</v>
       </c>
-      <c r="E31" s="16" t="s">
+      <c r="E31" s="13" t="s">
         <v>141</v>
       </c>
-      <c r="F31" s="18">
+      <c r="F31" s="14">
         <f t="shared" si="2"/>
         <v>800</v>
       </c>
-      <c r="G31" s="15"/>
-    </row>
-    <row r="32" s="1" customFormat="1" ht="17.25" spans="1:7">
-      <c r="A32" s="20" t="s">
+      <c r="G31" s="12"/>
+    </row>
+    <row r="32" spans="1:7" s="1" customFormat="1" ht="16.5">
+      <c r="A32" s="80" t="s">
         <v>104</v>
       </c>
-      <c r="B32" s="21"/>
-      <c r="C32" s="21"/>
-      <c r="D32" s="7">
+      <c r="B32" s="81"/>
+      <c r="C32" s="81"/>
+      <c r="D32" s="5">
         <f>SUM(D3:D31)</f>
         <v>163</v>
       </c>
-      <c r="E32" s="22"/>
-      <c r="F32" s="7">
+      <c r="E32" s="16"/>
+      <c r="F32" s="5">
         <f>SUM(F3:F31)</f>
         <v>14600</v>
       </c>
-      <c r="G32" s="23"/>
-    </row>
-    <row r="33" s="2" customFormat="1" ht="21" customHeight="1" spans="5:6">
-      <c r="E33" s="24"/>
-      <c r="F33" s="25"/>
-    </row>
-    <row r="34" s="2" customFormat="1" ht="16.5" spans="5:6">
-      <c r="E34" s="26"/>
-      <c r="F34" s="27"/>
-    </row>
-    <row r="35" ht="16.5" spans="5:7">
-      <c r="E35" s="28"/>
-      <c r="F35" s="29"/>
-      <c r="G35" s="30"/>
-    </row>
-    <row r="36" ht="16.5" spans="5:7">
-      <c r="E36" s="31"/>
-      <c r="F36" s="32"/>
-      <c r="G36" s="30"/>
-    </row>
-    <row r="37" ht="16.5" spans="5:7">
-      <c r="E37" s="33"/>
-      <c r="F37" s="34"/>
-      <c r="G37" s="30"/>
-    </row>
-    <row r="38" ht="16.5" spans="5:7">
-      <c r="E38" s="35"/>
-      <c r="G38" s="36"/>
-    </row>
-    <row r="39" ht="16.5" spans="5:7">
-      <c r="E39" s="35"/>
-      <c r="G39" s="30"/>
-    </row>
-    <row r="40" spans="7:7">
-      <c r="G40" s="30"/>
-    </row>
-    <row r="41" spans="7:7">
-      <c r="G41" s="30"/>
-    </row>
-    <row r="42" spans="7:7">
-      <c r="G42" s="30"/>
-    </row>
-    <row r="43" spans="7:7">
-      <c r="G43" s="30"/>
-    </row>
-    <row r="44" ht="18" spans="7:7">
-      <c r="G44" s="37"/>
-    </row>
-    <row r="45" spans="7:7">
-      <c r="G45" s="38"/>
+      <c r="G32" s="17"/>
+    </row>
+    <row r="33" spans="5:7" s="2" customFormat="1" ht="21" customHeight="1">
+      <c r="E33" s="18"/>
+      <c r="F33" s="19"/>
+    </row>
+    <row r="34" spans="5:7" s="2" customFormat="1" ht="16.5">
+      <c r="E34" s="20"/>
+      <c r="F34" s="21"/>
+    </row>
+    <row r="35" spans="5:7" ht="16.5">
+      <c r="E35" s="22"/>
+      <c r="F35" s="23"/>
+      <c r="G35" s="24"/>
+    </row>
+    <row r="36" spans="5:7" ht="16.5">
+      <c r="E36" s="25"/>
+      <c r="F36" s="26"/>
+      <c r="G36" s="24"/>
+    </row>
+    <row r="37" spans="5:7" ht="16.5">
+      <c r="E37" s="27"/>
+      <c r="F37" s="28"/>
+      <c r="G37" s="24"/>
+    </row>
+    <row r="38" spans="5:7" ht="16.5">
+      <c r="E38" s="29"/>
+      <c r="G38" s="30"/>
+    </row>
+    <row r="39" spans="5:7" ht="16.5">
+      <c r="E39" s="29"/>
+      <c r="G39" s="24"/>
+    </row>
+    <row r="40" spans="5:7" ht="16.5">
+      <c r="G40" s="24"/>
+    </row>
+    <row r="41" spans="5:7" ht="16.5">
+      <c r="G41" s="24"/>
+    </row>
+    <row r="42" spans="5:7" ht="16.5">
+      <c r="G42" s="24"/>
+    </row>
+    <row r="43" spans="5:7" ht="16.5">
+      <c r="G43" s="24"/>
+    </row>
+    <row r="44" spans="5:7" ht="18">
+      <c r="G44" s="31"/>
+    </row>
+    <row r="45" spans="5:7">
+      <c r="G45" s="32"/>
     </row>
   </sheetData>
   <autoFilter ref="A2:G32">
@@ -4989,7 +4414,7 @@
     <mergeCell ref="A12:A21"/>
     <mergeCell ref="A22:A31"/>
   </mergeCells>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
-  <headerFooter/>
+  <phoneticPr fontId="18" type="noConversion"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.51180555555555596" footer="0.51180555555555596"/>
 </worksheet>
 </file>